--- a/icd_files/58668.xlsx
+++ b/icd_files/58668.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDCBB53-8C0B-45F8-A4FA-F2642F282921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA6F20A-5973-432E-908B-3BF81EAEFA3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="479">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -717,6 +717,12 @@
     <t>01-09</t>
   </si>
   <si>
+    <t>01-10</t>
+  </si>
+  <si>
+    <t>01-11</t>
+  </si>
+  <si>
     <t>01-12</t>
   </si>
   <si>
@@ -738,6 +744,15 @@
     <t>01-19</t>
   </si>
   <si>
+    <t>01-20</t>
+  </si>
+  <si>
+    <t>01-24</t>
+  </si>
+  <si>
+    <t>01-27</t>
+  </si>
+  <si>
     <t>01-28</t>
   </si>
   <si>
@@ -750,21 +765,141 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Ipratropium Bromide Neb</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin HCl</t>
+  </si>
+  <si>
+    <t>Potassium Chl 20 mEq / 1000 mL D5 1/2 NS</t>
+  </si>
+  <si>
+    <t>DiphenhydrAMINE</t>
+  </si>
+  <si>
+    <t>Metoprolol Tartrate</t>
+  </si>
+  <si>
     <t>0.9% Sodium Chloride</t>
   </si>
   <si>
-    <t>Metoprolol Tartrate</t>
+    <t>LeVETiracetam</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Oxcarbazepine</t>
   </si>
   <si>
     <t>Lorazepam</t>
   </si>
   <si>
+    <t>Neutra-Phos</t>
+  </si>
+  <si>
+    <t>Calcium Carbonate Suspension</t>
+  </si>
+  <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>NS (Mini Bag Plus)</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Lansoprazole Oral Disintegrating Tab</t>
+  </si>
+  <si>
+    <t>Diltiazem</t>
+  </si>
+  <si>
+    <t>Albumin 5% (25g / 500mL)</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Triamcinolone Acetonide 0.1% Cream</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>MethylPREDNISolone Sodium Succ</t>
+  </si>
+  <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>D5 1/2NS</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Sarna Lotion</t>
+  </si>
+  <si>
+    <t>Sodium Phosphate</t>
+  </si>
+  <si>
+    <t>Phenytoin Sodium</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Pantoprazole Sodium</t>
+  </si>
+  <si>
+    <t>Docusate Sodium</t>
+  </si>
+  <si>
+    <t>Influenza Virus Vaccine</t>
+  </si>
+  <si>
+    <t>CeftriaXONE</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Haloperidol</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
     <t>250 mL</t>
   </si>
   <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
+    <t>700 VIAL</t>
+  </si>
+  <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>40 VIAL</t>
+  </si>
+  <si>
+    <t>100 CAP</t>
+  </si>
+  <si>
+    <t>0.5 SYR</t>
+  </si>
+  <si>
     <t>19:15</t>
   </si>
   <si>
@@ -780,12 +915,54 @@
     <t>Localizes Pain</t>
   </si>
   <si>
+    <t>12.5 VIAL</t>
+  </si>
+  <si>
+    <t>500 mL</t>
+  </si>
+  <si>
+    <t>80 TAB</t>
+  </si>
+  <si>
+    <t>50-100 BAG</t>
+  </si>
+  <si>
+    <t>5000 mL</t>
+  </si>
+  <si>
+    <t>1000 mL</t>
+  </si>
+  <si>
+    <t>2 BAG</t>
+  </si>
+  <si>
+    <t>1 BTL</t>
+  </si>
+  <si>
+    <t>100 VIAL</t>
+  </si>
+  <si>
+    <t>1 BAG</t>
+  </si>
+  <si>
+    <t>50 mL</t>
+  </si>
+  <si>
+    <t>0.25 VIAL</t>
+  </si>
+  <si>
+    <t>4 BAG</t>
+  </si>
+  <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
+    <t>500 TAB</t>
+  </si>
+  <si>
     <t>100 mL</t>
   </si>
   <si>
-    <t>500 mL</t>
-  </si>
-  <si>
     <t>00:34</t>
   </si>
   <si>
@@ -822,9 +999,18 @@
     <t>22:00</t>
   </si>
   <si>
+    <t>40 mL</t>
+  </si>
+  <si>
+    <t>15 mL</t>
+  </si>
+  <si>
     <t>1000 BAG</t>
   </si>
   <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
     <t>00:10</t>
   </si>
   <si>
@@ -846,6 +1032,12 @@
     <t>25 TAB</t>
   </si>
   <si>
+    <t>30 TAB</t>
+  </si>
+  <si>
+    <t>5 VIAL</t>
+  </si>
+  <si>
     <t>06:00</t>
   </si>
   <si>
@@ -891,6 +1083,15 @@
     <t>1 mL</t>
   </si>
   <si>
+    <t>40 BAG</t>
+  </si>
+  <si>
+    <t>25 VIAL</t>
+  </si>
+  <si>
+    <t>1 TUBE</t>
+  </si>
+  <si>
     <t>0.25 mL</t>
   </si>
   <si>
@@ -906,6 +1107,9 @@
     <t>20:16</t>
   </si>
   <si>
+    <t>150 mL</t>
+  </si>
+  <si>
     <t>00:04</t>
   </si>
   <si>
@@ -945,10 +1149,43 @@
     <t>12.5 TAB</t>
   </si>
   <si>
+    <t>125 VIAL</t>
+  </si>
+  <si>
+    <t>20 TAB</t>
+  </si>
+  <si>
+    <t>1000 TAB</t>
+  </si>
+  <si>
+    <t>600 TAB</t>
+  </si>
+  <si>
+    <t>900 TAB</t>
+  </si>
+  <si>
+    <t>0.5 TAB</t>
+  </si>
+  <si>
+    <t>1 PKT</t>
+  </si>
+  <si>
+    <t>1250 UDCUP</t>
+  </si>
+  <si>
     <t>0.5 mL</t>
   </si>
   <si>
     <t>100 BAG</t>
+  </si>
+  <si>
+    <t>40 PKT</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>25 CAP</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -4481,7 +4718,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000000-EE5C-47F3-9915-2320BDF681E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5662,7 +5899,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000001-EE5C-47F3-9915-2320BDF681E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6843,7 +7080,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000002-EE5C-47F3-9915-2320BDF681E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8135,7 +8372,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000003-EE5C-47F3-9915-2320BDF681E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9430,7 +9667,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000004-EE5C-47F3-9915-2320BDF681E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10257,7 +10494,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000005-EE5C-47F3-9915-2320BDF681E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10980,7 +11217,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000006-EE5C-47F3-9915-2320BDF681E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11709,7 +11946,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000007-EE5C-47F3-9915-2320BDF681E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12429,7 +12666,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000008-EE5C-47F3-9915-2320BDF681E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12872,7 +13109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A31713-AFE5-4A73-A510-8167943B227D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A5AAB5-5418-498C-8F4F-7DCE9BD5005A}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -12897,7 +13134,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>309</v>
+        <v>388</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -12910,7 +13147,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -12923,7 +13160,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -12936,7 +13173,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>312</v>
+        <v>391</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -12949,27 +13186,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>316</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -12997,7 +13234,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -13025,11 +13262,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -13052,7 +13289,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13089,7 +13326,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -13112,14 +13349,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -13142,14 +13379,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -13172,14 +13409,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -13202,14 +13439,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>325</v>
+        <v>404</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -13232,16 +13469,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>325</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>326</v>
+        <v>405</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>327</v>
+        <v>406</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -13264,14 +13501,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>327</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -13294,10 +13531,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>329</v>
+        <v>408</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -13305,7 +13542,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>330</v>
+        <v>409</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -13317,7 +13554,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -13340,7 +13577,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -13356,11 +13593,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>332</v>
+        <v>411</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>333</v>
+        <v>412</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -13383,7 +13620,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>333</v>
+        <v>412</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -13401,7 +13638,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -13424,7 +13661,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -13443,7 +13680,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>335</v>
+        <v>414</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -13466,10 +13703,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>335</v>
+        <v>414</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -13487,7 +13724,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -13510,52 +13747,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>343</v>
+        <v>422</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>351</v>
+        <v>430</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -13578,53 +13815,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>351</v>
+        <v>430</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>358</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -13647,43 +13884,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -13691,7 +13928,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -13714,43 +13951,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -13758,7 +13995,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -13781,43 +14018,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -13825,7 +14062,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -13848,43 +14085,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -13892,7 +14129,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -13915,43 +14152,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -13959,7 +14196,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>343</v>
+        <v>422</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -13982,43 +14219,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>343</v>
+        <v>422</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -14026,7 +14263,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -14049,43 +14286,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -14093,7 +14330,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -14116,43 +14353,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -14160,7 +14397,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -14183,43 +14420,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -14227,7 +14464,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -14250,43 +14487,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -14294,7 +14531,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -14317,43 +14554,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -14361,7 +14598,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -14384,7 +14621,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -14397,10 +14634,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -14408,7 +14645,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -14431,14 +14668,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>360</v>
+        <v>439</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -14453,7 +14690,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -14476,7 +14713,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -14496,7 +14733,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -14519,7 +14756,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -14539,7 +14776,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -14562,7 +14799,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -14580,11 +14817,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>364</v>
+        <v>443</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>365</v>
+        <v>444</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -14607,14 +14844,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>365</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -14637,14 +14874,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -14667,14 +14904,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -14697,14 +14934,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -14727,14 +14964,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -14757,14 +14994,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -14787,10 +15024,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>366</v>
+        <v>445</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -14807,7 +15044,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -14830,7 +15067,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -14848,7 +15085,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -14871,7 +15108,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -14889,7 +15126,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -14912,14 +15149,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -14942,14 +15179,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>367</v>
+        <v>446</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -14972,24 +15209,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>367</v>
+        <v>446</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>368</v>
+        <v>447</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>369</v>
+        <v>448</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>370</v>
+        <v>449</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -15012,7 +15249,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>370</v>
+        <v>449</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -15021,7 +15258,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -15044,14 +15281,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>372</v>
+        <v>451</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -15059,7 +15296,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>373</v>
+        <v>452</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -15082,7 +15319,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>373</v>
+        <v>452</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -15091,7 +15328,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>374</v>
+        <v>453</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -15114,14 +15351,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>374</v>
+        <v>453</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>375</v>
+        <v>454</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -15129,7 +15366,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -15152,7 +15389,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -15161,7 +15398,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>377</v>
+        <v>456</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -15184,24 +15421,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>377</v>
+        <v>456</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>378</v>
+        <v>457</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>379</v>
+        <v>458</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>380</v>
+        <v>459</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -15224,7 +15461,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>380</v>
+        <v>459</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -15233,7 +15470,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>381</v>
+        <v>460</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -15256,22 +15493,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>381</v>
+        <v>460</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>382</v>
+        <v>461</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -15279,7 +15516,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>383</v>
+        <v>462</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -15302,7 +15539,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>383</v>
+        <v>462</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -15315,7 +15552,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>384</v>
+        <v>463</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -15338,32 +15575,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>384</v>
+        <v>463</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>385</v>
+        <v>464</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>386</v>
+        <v>465</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>387</v>
+        <v>466</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -15386,7 +15623,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>387</v>
+        <v>466</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -15395,7 +15632,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>388</v>
+        <v>467</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -15418,14 +15655,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>388</v>
+        <v>467</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>389</v>
+        <v>468</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -15433,7 +15670,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>390</v>
+        <v>469</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -15456,14 +15693,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>390</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>391</v>
+        <v>470</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -15486,12 +15723,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>391</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -15519,7 +15756,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>393</v>
+        <v>472</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -15546,13 +15783,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>394</v>
+        <v>473</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>395</v>
+        <v>474</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -15580,7 +15817,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>396</v>
+        <v>475</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -15692,7 +15929,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>397</v>
+        <v>476</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -15720,7 +15957,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>398</v>
+        <v>477</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -15748,7 +15985,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>399</v>
+        <v>478</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -20531,13 +20768,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:CS38"/>
+  <dimension ref="A30:GX72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>219</v>
       </c>
@@ -20545,7 +20782,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:206" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>221</v>
       </c>
@@ -20598,1095 +20835,6023 @@
         <v>222</v>
       </c>
       <c r="S31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AV31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BD31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BF31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BG31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BI31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BO31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BP31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BR31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BS31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BT31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BU31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BY31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BZ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CB31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CC31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CD31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CE31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CF31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CG31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CI31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CJ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CK31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CL31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CM31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CN31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CO31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CP31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CQ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CR31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CS31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CT31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CU31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CV31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CW31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CX31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CY31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CZ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DA31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DB31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DC31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DD31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DE31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DF31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DG31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DH31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="DI31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="DJ31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="DK31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="DL31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="DM31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="DN31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="DO31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="DP31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="DQ31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="DR31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="DS31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="DT31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="DU31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="DV31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="DW31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="DX31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="DY31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="DZ31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EA31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EB31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EC31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="ED31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EE31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="EF31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="EG31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="EH31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="EI31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="EJ31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="EK31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="EL31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="EM31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AS31" s="1" t="s">
+      <c r="EN31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AT31" s="1" t="s">
+      <c r="EO31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AU31" s="1" t="s">
+      <c r="EP31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AV31" s="1" t="s">
+      <c r="EQ31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="ER31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="ES31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AW31" s="1" t="s">
+      <c r="ET31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AX31" s="1" t="s">
+      <c r="EU31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AY31" s="1" t="s">
+      <c r="EV31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AZ31" s="1" t="s">
+      <c r="EW31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="EX31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BB31" s="1" t="s">
+      <c r="EY31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BC31" s="1" t="s">
+      <c r="EZ31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BD31" s="1" t="s">
+      <c r="FA31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BE31" s="1" t="s">
+      <c r="FB31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BF31" s="1" t="s">
+      <c r="FC31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BG31" s="1" t="s">
+      <c r="FD31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BH31" s="1" t="s">
+      <c r="FE31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BI31" s="1" t="s">
+      <c r="FF31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BJ31" s="1" t="s">
+      <c r="FG31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BK31" s="1" t="s">
+      <c r="FH31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BL31" s="1" t="s">
+      <c r="FI31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BM31" s="1" t="s">
+      <c r="FJ31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BN31" s="1" t="s">
+      <c r="FK31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BO31" s="1" t="s">
+      <c r="FL31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BP31" s="1" t="s">
+      <c r="FM31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BQ31" s="1" t="s">
+      <c r="FN31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BR31" s="1" t="s">
+      <c r="FO31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BS31" s="1" t="s">
+      <c r="FP31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BT31" s="1" t="s">
+      <c r="FQ31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BU31" s="1" t="s">
+      <c r="FR31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BV31" s="1" t="s">
+      <c r="FS31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BW31" s="1" t="s">
+      <c r="FT31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BX31" s="1" t="s">
+      <c r="FU31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BY31" s="1" t="s">
+      <c r="FV31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BZ31" s="1" t="s">
+      <c r="FW31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CA31" s="1" t="s">
+      <c r="FX31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CB31" s="1" t="s">
+      <c r="FY31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CC31" s="1" t="s">
+      <c r="FZ31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CD31" s="1" t="s">
+      <c r="GA31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CE31" s="1" t="s">
+      <c r="GB31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CF31" s="1" t="s">
+      <c r="GC31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="GD31" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="CG31" s="1" t="s">
+      <c r="GE31" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="CH31" s="1" t="s">
+      <c r="GF31" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="CI31" s="1" t="s">
+      <c r="GG31" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="CJ31" s="1" t="s">
+      <c r="GH31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="CK31" s="1" t="s">
+      <c r="GI31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="CL31" s="1" t="s">
+      <c r="GJ31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="CM31" s="1" t="s">
+      <c r="GK31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="CN31" s="1" t="s">
+      <c r="GL31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="CO31" s="1" t="s">
+      <c r="GM31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="GN31" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="CP31" s="1" t="s">
+      <c r="GO31" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="CQ31" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="CR31" s="1" t="s">
+      <c r="GP31" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="CS31" s="1" t="s">
+      <c r="GQ31" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="GR31" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="32" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="GS31" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="GT31" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="GU31" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="GV31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="GW31" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="GX31" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D32" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32" t="s">
+        <v>284</v>
+      </c>
+      <c r="F32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" t="s">
+        <v>284</v>
+      </c>
+      <c r="H32" t="s">
+        <v>284</v>
+      </c>
+      <c r="I32" t="s">
+        <v>284</v>
+      </c>
+      <c r="J32" t="s">
+        <v>284</v>
+      </c>
+      <c r="K32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="s">
+        <v>284</v>
+      </c>
+      <c r="N32" t="s">
+        <v>284</v>
+      </c>
+      <c r="O32" t="s">
+        <v>284</v>
+      </c>
+      <c r="P32" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>284</v>
+      </c>
+      <c r="R32" t="s">
+        <v>284</v>
+      </c>
+      <c r="S32" t="s">
+        <v>284</v>
+      </c>
+      <c r="T32" t="s">
+        <v>284</v>
+      </c>
+      <c r="U32" t="s">
+        <v>284</v>
+      </c>
+      <c r="V32" t="s">
+        <v>284</v>
+      </c>
+      <c r="W32" t="s">
+        <v>284</v>
+      </c>
+      <c r="X32" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>313</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>315</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>316</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>317</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>318</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>320</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>321</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>322</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>323</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>324</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DP32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DQ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DR32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>329</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>330</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>331</v>
+      </c>
+      <c r="DW32" t="s">
+        <v>316</v>
+      </c>
+      <c r="DX32" t="s">
+        <v>317</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>318</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>332</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>333</v>
+      </c>
+      <c r="EB32" t="s">
+        <v>334</v>
+      </c>
+      <c r="EC32" t="s">
+        <v>323</v>
+      </c>
+      <c r="ED32" t="s">
+        <v>324</v>
+      </c>
+      <c r="EE32" t="s">
+        <v>284</v>
+      </c>
+      <c r="EF32" t="s">
+        <v>284</v>
+      </c>
+      <c r="EG32" t="s">
+        <v>284</v>
+      </c>
+      <c r="EH32" t="s">
+        <v>330</v>
+      </c>
+      <c r="EI32" t="s">
+        <v>331</v>
+      </c>
+      <c r="EJ32" t="s">
+        <v>338</v>
+      </c>
+      <c r="EK32" t="s">
+        <v>339</v>
+      </c>
+      <c r="EL32" t="s">
+        <v>317</v>
+      </c>
+      <c r="EM32" t="s">
+        <v>318</v>
+      </c>
+      <c r="EN32" t="s">
+        <v>340</v>
+      </c>
+      <c r="EO32" t="s">
+        <v>341</v>
+      </c>
+      <c r="EP32" t="s">
+        <v>322</v>
+      </c>
+      <c r="EQ32" t="s">
+        <v>342</v>
+      </c>
+      <c r="ER32" t="s">
+        <v>343</v>
+      </c>
+      <c r="ES32" t="s">
+        <v>284</v>
+      </c>
+      <c r="ET32" t="s">
+        <v>344</v>
+      </c>
+      <c r="EU32" t="s">
+        <v>345</v>
+      </c>
+      <c r="EV32" t="s">
+        <v>346</v>
+      </c>
+      <c r="EW32" t="s">
+        <v>347</v>
+      </c>
+      <c r="EX32" t="s">
+        <v>316</v>
+      </c>
+      <c r="EY32" t="s">
+        <v>349</v>
+      </c>
+      <c r="EZ32" t="s">
+        <v>350</v>
+      </c>
+      <c r="FA32" t="s">
+        <v>323</v>
+      </c>
+      <c r="FB32" t="s">
+        <v>284</v>
+      </c>
+      <c r="FC32" t="s">
+        <v>331</v>
+      </c>
+      <c r="FD32" t="s">
+        <v>316</v>
+      </c>
+      <c r="FE32" t="s">
+        <v>321</v>
+      </c>
+      <c r="FF32" t="s">
+        <v>323</v>
+      </c>
+      <c r="FG32" t="s">
+        <v>284</v>
+      </c>
+      <c r="FH32" t="s">
+        <v>284</v>
+      </c>
+      <c r="FI32" t="s">
+        <v>331</v>
+      </c>
+      <c r="FJ32" t="s">
+        <v>316</v>
+      </c>
+      <c r="FK32" t="s">
+        <v>317</v>
+      </c>
+      <c r="FL32" t="s">
+        <v>318</v>
+      </c>
+      <c r="FM32" t="s">
+        <v>357</v>
+      </c>
+      <c r="FN32" t="s">
+        <v>358</v>
+      </c>
+      <c r="FO32" t="s">
+        <v>359</v>
+      </c>
+      <c r="FP32" t="s">
+        <v>360</v>
+      </c>
+      <c r="FQ32" t="s">
+        <v>343</v>
+      </c>
+      <c r="FR32" t="s">
+        <v>284</v>
+      </c>
+      <c r="FS32" t="s">
+        <v>362</v>
+      </c>
+      <c r="FT32" t="s">
+        <v>363</v>
+      </c>
+      <c r="FU32" t="s">
+        <v>364</v>
+      </c>
+      <c r="FV32" t="s">
+        <v>365</v>
+      </c>
+      <c r="FW32" t="s">
+        <v>366</v>
+      </c>
+      <c r="FX32" t="s">
+        <v>367</v>
+      </c>
+      <c r="FY32" t="s">
+        <v>318</v>
+      </c>
+      <c r="FZ32" t="s">
+        <v>368</v>
+      </c>
+      <c r="GA32" t="s">
+        <v>369</v>
+      </c>
+      <c r="GB32" t="s">
+        <v>370</v>
+      </c>
+      <c r="GC32" t="s">
+        <v>371</v>
+      </c>
+      <c r="GD32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GE32" t="s">
+        <v>372</v>
+      </c>
+      <c r="GF32" t="s">
+        <v>373</v>
+      </c>
+      <c r="GG32" t="s">
+        <v>323</v>
+      </c>
+      <c r="GH32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GI32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GJ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GK32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GL32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GM32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GN32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GO32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GP32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GQ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GR32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GS32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GT32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GU32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GV32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GW32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GX32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33" t="s">
+        <v>293</v>
+      </c>
+      <c r="CW33" t="s">
+        <v>293</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>293</v>
+      </c>
+      <c r="CY33" t="s">
+        <v>293</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>293</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>293</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DD33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DF33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DG33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DT33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DU33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DV33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DW33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DX33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DY33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DZ33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EA33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EB33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EC33" t="s">
+        <v>319</v>
+      </c>
+      <c r="ED33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EE33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EF33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EG33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EH33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EI33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EJ33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EK33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EL33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EM33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EN33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EO33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EP33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EQ33" t="s">
+        <v>319</v>
+      </c>
+      <c r="ER33" t="s">
+        <v>319</v>
+      </c>
+      <c r="ET33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EU33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EV33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EW33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EX33" t="s">
+        <v>348</v>
+      </c>
+      <c r="EY33" t="s">
+        <v>348</v>
+      </c>
+      <c r="EZ33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FA33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FB33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FC33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FD33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FE33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FF33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FG33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FH33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FI33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FJ33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FK33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FL33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FM33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FN33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FO33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FP33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FQ33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FS33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FT33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FU33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FV33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FW33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FX33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FY33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FZ33" t="s">
+        <v>319</v>
+      </c>
+      <c r="GA33" t="s">
+        <v>348</v>
+      </c>
+      <c r="GB33" t="s">
+        <v>348</v>
+      </c>
+      <c r="GC33" t="s">
+        <v>348</v>
+      </c>
+      <c r="GE33" t="s">
+        <v>348</v>
+      </c>
+      <c r="GF33" t="s">
+        <v>348</v>
+      </c>
+      <c r="GG33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
+        <v>294</v>
+      </c>
+      <c r="D34" t="s">
+        <v>296</v>
+      </c>
+      <c r="CW34" t="s">
+        <v>296</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>296</v>
+      </c>
+      <c r="CY34" t="s">
+        <v>296</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>296</v>
+      </c>
+      <c r="DA34" t="s">
+        <v>296</v>
+      </c>
+      <c r="DB34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DC34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DD34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DE34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DF34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DG34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DT34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DU34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DV34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DW34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DX34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DY34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DZ34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EA34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EB34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EC34" t="s">
+        <v>294</v>
+      </c>
+      <c r="ED34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EE34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EF34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EG34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EH34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EI34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EJ34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EK34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EL34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EM34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EN34" t="s">
+        <v>296</v>
+      </c>
+      <c r="EO34" t="s">
+        <v>296</v>
+      </c>
+      <c r="EP34" t="s">
+        <v>296</v>
+      </c>
+      <c r="EQ34" t="s">
+        <v>294</v>
+      </c>
+      <c r="ER34" t="s">
+        <v>294</v>
+      </c>
+      <c r="ET34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EU34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EV34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EW34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EX34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EY34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EZ34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FA34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FB34" t="s">
+        <v>351</v>
+      </c>
+      <c r="FC34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FD34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FE34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FF34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FG34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FH34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FI34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FJ34" t="s">
+        <v>296</v>
+      </c>
+      <c r="FK34" t="s">
+        <v>296</v>
+      </c>
+      <c r="FL34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FM34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FN34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FO34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FP34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FQ34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FS34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FT34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FU34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FV34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FW34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FX34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FY34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FZ34" t="s">
+        <v>294</v>
+      </c>
+      <c r="GA34" t="s">
+        <v>294</v>
+      </c>
+      <c r="GB34" t="s">
+        <v>294</v>
+      </c>
+      <c r="GC34" t="s">
+        <v>294</v>
+      </c>
+      <c r="GE34" t="s">
+        <v>294</v>
+      </c>
+      <c r="GF34" t="s">
+        <v>294</v>
+      </c>
+      <c r="GG34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D32" t="s">
+      <c r="GV36" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="GW37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="GX38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E32" t="s">
-        <v>245</v>
-      </c>
-      <c r="F32" t="s">
-        <v>245</v>
-      </c>
-      <c r="G32" t="s">
-        <v>245</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="E39" t="s">
+        <v>297</v>
+      </c>
+      <c r="F39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I39" t="s">
+        <v>297</v>
+      </c>
+      <c r="J39" t="s">
+        <v>297</v>
+      </c>
+      <c r="K39" t="s">
+        <v>297</v>
+      </c>
+      <c r="L39" t="s">
+        <v>297</v>
+      </c>
+      <c r="M39" t="s">
+        <v>297</v>
+      </c>
+      <c r="N39" t="s">
+        <v>297</v>
+      </c>
+      <c r="O39" t="s">
+        <v>297</v>
+      </c>
+      <c r="P39" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>297</v>
+      </c>
+      <c r="R39" t="s">
+        <v>297</v>
+      </c>
+      <c r="S39" t="s">
+        <v>297</v>
+      </c>
+      <c r="T39" t="s">
+        <v>297</v>
+      </c>
+      <c r="U39" t="s">
+        <v>297</v>
+      </c>
+      <c r="V39" t="s">
+        <v>297</v>
+      </c>
+      <c r="W39" t="s">
+        <v>297</v>
+      </c>
+      <c r="X39" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BW39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BX39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BZ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CA39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CB39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CC39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CD39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CE39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CF39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CG39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CH39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CI39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CJ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CK39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CL39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CM39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CN39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CO39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CP39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CQ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CR39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CS39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CT39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CU39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CV39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DH39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DI39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DJ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DK39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DL39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DM39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DN39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DO39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DP39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DQ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DR39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DS39" t="s">
+        <v>297</v>
+      </c>
+      <c r="GX39" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DH40" t="s">
+        <v>297</v>
+      </c>
+      <c r="DI40" t="s">
+        <v>297</v>
+      </c>
+      <c r="DJ40" t="s">
+        <v>297</v>
+      </c>
+      <c r="DK40" t="s">
+        <v>297</v>
+      </c>
+      <c r="DL40" t="s">
+        <v>297</v>
+      </c>
+      <c r="DM40" t="s">
+        <v>328</v>
+      </c>
+      <c r="DN40" t="s">
+        <v>328</v>
+      </c>
+      <c r="DO40" t="s">
+        <v>328</v>
+      </c>
+      <c r="DP40" t="s">
+        <v>328</v>
+      </c>
+      <c r="DQ40" t="s">
+        <v>328</v>
+      </c>
+      <c r="DR40" t="s">
+        <v>328</v>
+      </c>
+      <c r="DS40" t="s">
+        <v>297</v>
+      </c>
+      <c r="EE40" t="s">
+        <v>335</v>
+      </c>
+      <c r="EF40" t="s">
+        <v>337</v>
+      </c>
+      <c r="EG40" t="s">
+        <v>337</v>
+      </c>
+      <c r="GD40" t="s">
+        <v>335</v>
+      </c>
+      <c r="GH40" t="s">
+        <v>374</v>
+      </c>
+      <c r="GS40" t="s">
+        <v>335</v>
+      </c>
+      <c r="GX40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" t="s">
+        <v>298</v>
+      </c>
+      <c r="F41" t="s">
+        <v>298</v>
+      </c>
+      <c r="G41" t="s">
+        <v>298</v>
+      </c>
+      <c r="H41" t="s">
+        <v>298</v>
+      </c>
+      <c r="I41" t="s">
+        <v>298</v>
+      </c>
+      <c r="J41" t="s">
+        <v>298</v>
+      </c>
+      <c r="K41" t="s">
+        <v>298</v>
+      </c>
+      <c r="L41" t="s">
+        <v>298</v>
+      </c>
+      <c r="M41" t="s">
+        <v>298</v>
+      </c>
+      <c r="N41" t="s">
+        <v>298</v>
+      </c>
+      <c r="O41" t="s">
+        <v>298</v>
+      </c>
+      <c r="P41" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>298</v>
+      </c>
+      <c r="R41" t="s">
+        <v>298</v>
+      </c>
+      <c r="S41" t="s">
+        <v>298</v>
+      </c>
+      <c r="T41" t="s">
+        <v>298</v>
+      </c>
+      <c r="U41" t="s">
+        <v>298</v>
+      </c>
+      <c r="V41" t="s">
+        <v>298</v>
+      </c>
+      <c r="W41" t="s">
+        <v>298</v>
+      </c>
+      <c r="X41" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>298</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BW41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BX41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CC41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CD41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CF41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CG41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CH41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CI41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CJ41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CK41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CL41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CM41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CN41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CO41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CP41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CQ41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CR41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CS41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CT41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CV41" t="s">
+        <v>312</v>
+      </c>
+      <c r="DH41" t="s">
+        <v>312</v>
+      </c>
+      <c r="DI41" t="s">
+        <v>285</v>
+      </c>
+      <c r="DJ41" t="s">
+        <v>285</v>
+      </c>
+      <c r="DK41" t="s">
+        <v>327</v>
+      </c>
+      <c r="DL41" t="s">
+        <v>298</v>
+      </c>
+      <c r="DM41" t="s">
+        <v>327</v>
+      </c>
+      <c r="DN41" t="s">
+        <v>312</v>
+      </c>
+      <c r="DO41" t="s">
+        <v>298</v>
+      </c>
+      <c r="DP41" t="s">
+        <v>285</v>
+      </c>
+      <c r="DQ41" t="s">
+        <v>285</v>
+      </c>
+      <c r="DR41" t="s">
+        <v>285</v>
+      </c>
+      <c r="DS41" t="s">
+        <v>285</v>
+      </c>
+      <c r="EE41" t="s">
+        <v>298</v>
+      </c>
+      <c r="EF41" t="s">
+        <v>298</v>
+      </c>
+      <c r="EG41" t="s">
+        <v>298</v>
+      </c>
+      <c r="ES41" t="s">
+        <v>298</v>
+      </c>
+      <c r="FG41" t="s">
+        <v>327</v>
+      </c>
+      <c r="FH41" t="s">
+        <v>285</v>
+      </c>
+      <c r="GK41" t="s">
+        <v>285</v>
+      </c>
+      <c r="GL41" t="s">
+        <v>327</v>
+      </c>
+      <c r="GM41" t="s">
+        <v>327</v>
+      </c>
+      <c r="GR41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42" t="s">
+        <v>298</v>
+      </c>
+      <c r="F42" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" t="s">
+        <v>298</v>
+      </c>
+      <c r="H42" t="s">
+        <v>298</v>
+      </c>
+      <c r="I42" t="s">
+        <v>298</v>
+      </c>
+      <c r="J42" t="s">
+        <v>298</v>
+      </c>
+      <c r="K42" t="s">
+        <v>298</v>
+      </c>
+      <c r="L42" t="s">
+        <v>298</v>
+      </c>
+      <c r="M42" t="s">
+        <v>298</v>
+      </c>
+      <c r="N42" t="s">
+        <v>298</v>
+      </c>
+      <c r="O42" t="s">
+        <v>298</v>
+      </c>
+      <c r="P42" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>298</v>
+      </c>
+      <c r="R42" t="s">
+        <v>311</v>
+      </c>
+      <c r="S42" t="s">
+        <v>311</v>
+      </c>
+      <c r="T42" t="s">
+        <v>311</v>
+      </c>
+      <c r="U42" t="s">
+        <v>311</v>
+      </c>
+      <c r="V42" t="s">
+        <v>298</v>
+      </c>
+      <c r="W42" t="s">
+        <v>298</v>
+      </c>
+      <c r="X42" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>298</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BK42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BL42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BN42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BO42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>298</v>
+      </c>
+      <c r="BQ42" t="s">
+        <v>298</v>
+      </c>
+      <c r="BR42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BS42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BT42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BU42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BV42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BW42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BX42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BY42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BZ42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CA42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CB42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CC42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CD42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CE42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CF42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CG42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CH42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CI42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CJ42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CK42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CL42" t="s">
+        <v>311</v>
+      </c>
+      <c r="CM42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CN42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CO42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CP42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CQ42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CR42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CS42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CT42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CU42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CV42" t="s">
+        <v>298</v>
+      </c>
+      <c r="DH42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DI42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DJ42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DK42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DL42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DM42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DN42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DO42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DP42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DQ42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DR42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DS42" t="s">
+        <v>302</v>
+      </c>
+      <c r="GI42" t="s">
+        <v>311</v>
+      </c>
+      <c r="GK42" t="s">
+        <v>377</v>
+      </c>
+      <c r="GL42" t="s">
+        <v>311</v>
+      </c>
+      <c r="GM42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="I32" t="s">
+      <c r="B43" t="s">
+        <v>286</v>
+      </c>
+      <c r="GK43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J32" t="s">
+      <c r="GL44" t="s">
+        <v>378</v>
+      </c>
+      <c r="GM44" t="s">
+        <v>378</v>
+      </c>
+      <c r="GN44" t="s">
+        <v>379</v>
+      </c>
+      <c r="GO44" t="s">
+        <v>379</v>
+      </c>
+      <c r="GT44" t="s">
+        <v>379</v>
+      </c>
+      <c r="GU44" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K32" t="s">
+      <c r="FB45" t="s">
+        <v>352</v>
+      </c>
+      <c r="FG45" t="s">
+        <v>356</v>
+      </c>
+      <c r="FH45" t="s">
+        <v>356</v>
+      </c>
+      <c r="GN45" t="s">
+        <v>352</v>
+      </c>
+      <c r="GO45" t="s">
+        <v>352</v>
+      </c>
+      <c r="GP45" t="s">
+        <v>380</v>
+      </c>
+      <c r="GQ45" t="s">
+        <v>383</v>
+      </c>
+      <c r="GT45" t="s">
+        <v>380</v>
+      </c>
+      <c r="GU45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="L32" t="s">
+      <c r="GP46" t="s">
+        <v>381</v>
+      </c>
+      <c r="GQ46" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M32" t="s">
+      <c r="GP47" t="s">
+        <v>382</v>
+      </c>
+      <c r="GQ47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="N32" t="s">
+      <c r="GR48" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="GR49" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="50" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="O32" t="s">
+      <c r="GR50" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="P32" t="s">
+      <c r="E51" t="s">
+        <v>299</v>
+      </c>
+      <c r="F51" t="s">
+        <v>299</v>
+      </c>
+      <c r="G51" t="s">
+        <v>299</v>
+      </c>
+      <c r="H51" t="s">
+        <v>299</v>
+      </c>
+      <c r="I51" t="s">
+        <v>299</v>
+      </c>
+      <c r="J51" t="s">
+        <v>310</v>
+      </c>
+      <c r="K51" t="s">
+        <v>310</v>
+      </c>
+      <c r="L51" t="s">
+        <v>310</v>
+      </c>
+      <c r="M51" t="s">
+        <v>310</v>
+      </c>
+      <c r="N51" t="s">
+        <v>299</v>
+      </c>
+      <c r="O51" t="s">
+        <v>310</v>
+      </c>
+      <c r="P51" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>310</v>
+      </c>
+      <c r="R51" t="s">
+        <v>299</v>
+      </c>
+      <c r="S51" t="s">
+        <v>299</v>
+      </c>
+      <c r="T51" t="s">
+        <v>299</v>
+      </c>
+      <c r="U51" t="s">
+        <v>299</v>
+      </c>
+      <c r="V51" t="s">
+        <v>310</v>
+      </c>
+      <c r="W51" t="s">
+        <v>299</v>
+      </c>
+      <c r="X51" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>299</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BG51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BH51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BI51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BJ51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BK51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BL51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BM51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BN51" t="s">
+        <v>299</v>
+      </c>
+      <c r="BO51" t="s">
+        <v>299</v>
+      </c>
+      <c r="BP51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BQ51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BR51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BS51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BT51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BU51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BV51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BW51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BX51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BZ51" t="s">
+        <v>310</v>
+      </c>
+      <c r="CA51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CB51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CD51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CE51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CF51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CG51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CH51" t="s">
+        <v>310</v>
+      </c>
+      <c r="CI51" t="s">
+        <v>310</v>
+      </c>
+      <c r="CJ51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CK51" t="s">
+        <v>310</v>
+      </c>
+      <c r="CL51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CM51" t="s">
+        <v>310</v>
+      </c>
+      <c r="CN51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CO51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CP51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CQ51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CR51" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CT51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CU51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CV51" t="s">
+        <v>299</v>
+      </c>
+      <c r="DH51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DI51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DJ51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DK51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DL51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DM51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DN51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DO51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DP51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DQ51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DR51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DS51" t="s">
+        <v>325</v>
+      </c>
+      <c r="FB51" t="s">
+        <v>353</v>
+      </c>
+      <c r="GT51" t="s">
+        <v>385</v>
+      </c>
+      <c r="GU51" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="EE52" t="s">
+        <v>336</v>
+      </c>
+      <c r="EF52" t="s">
+        <v>336</v>
+      </c>
+      <c r="EG52" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="R32" t="s">
+      <c r="ES53" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="S32" t="s">
-        <v>245</v>
-      </c>
-      <c r="T32" t="s">
-        <v>245</v>
-      </c>
-      <c r="U32" t="s">
-        <v>245</v>
-      </c>
-      <c r="V32" t="s">
-        <v>245</v>
-      </c>
-      <c r="W32" t="s">
-        <v>245</v>
-      </c>
-      <c r="X32" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y32" t="s">
+      <c r="FB54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E55" t="s">
+        <v>300</v>
+      </c>
+      <c r="F55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G55" t="s">
+        <v>300</v>
+      </c>
+      <c r="H55" t="s">
+        <v>300</v>
+      </c>
+      <c r="I55" t="s">
+        <v>300</v>
+      </c>
+      <c r="J55" t="s">
+        <v>300</v>
+      </c>
+      <c r="K55" t="s">
+        <v>300</v>
+      </c>
+      <c r="L55" t="s">
+        <v>300</v>
+      </c>
+      <c r="M55" t="s">
+        <v>300</v>
+      </c>
+      <c r="N55" t="s">
+        <v>300</v>
+      </c>
+      <c r="O55" t="s">
+        <v>300</v>
+      </c>
+      <c r="P55" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>300</v>
+      </c>
+      <c r="R55" t="s">
+        <v>300</v>
+      </c>
+      <c r="S55" t="s">
+        <v>300</v>
+      </c>
+      <c r="T55" t="s">
+        <v>300</v>
+      </c>
+      <c r="U55" t="s">
+        <v>300</v>
+      </c>
+      <c r="V55" t="s">
+        <v>300</v>
+      </c>
+      <c r="W55" t="s">
+        <v>300</v>
+      </c>
+      <c r="X55" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BB55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BF55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BG55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BJ55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BK55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BL55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BM55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BN55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BO55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BP55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BQ55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BR55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BS55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BT55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BU55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BV55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BW55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BX55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BY55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BZ55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CA55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CB55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CC55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CD55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CE55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CF55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CG55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CH55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CI55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CJ55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CK55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CL55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CM55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CN55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CO55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CP55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CQ55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CR55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CS55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CT55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CU55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CV55" t="s">
+        <v>300</v>
+      </c>
+      <c r="FB55" t="s">
+        <v>307</v>
+      </c>
+      <c r="FR55" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="56" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="FB56" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="E57" t="s">
+        <v>301</v>
+      </c>
+      <c r="F57" t="s">
+        <v>301</v>
+      </c>
+      <c r="G57" t="s">
+        <v>301</v>
+      </c>
+      <c r="H57" t="s">
+        <v>301</v>
+      </c>
+      <c r="I57" t="s">
+        <v>301</v>
+      </c>
+      <c r="J57" t="s">
+        <v>301</v>
+      </c>
+      <c r="K57" t="s">
+        <v>301</v>
+      </c>
+      <c r="L57" t="s">
+        <v>301</v>
+      </c>
+      <c r="M57" t="s">
+        <v>301</v>
+      </c>
+      <c r="N57" t="s">
+        <v>301</v>
+      </c>
+      <c r="O57" t="s">
+        <v>301</v>
+      </c>
+      <c r="P57" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>301</v>
+      </c>
+      <c r="R57" t="s">
+        <v>301</v>
+      </c>
+      <c r="S57" t="s">
+        <v>301</v>
+      </c>
+      <c r="T57" t="s">
+        <v>301</v>
+      </c>
+      <c r="U57" t="s">
+        <v>301</v>
+      </c>
+      <c r="V57" t="s">
+        <v>301</v>
+      </c>
+      <c r="W57" t="s">
+        <v>301</v>
+      </c>
+      <c r="X57" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BA57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BB57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BF57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BG57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BH57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BJ57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BM57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BN57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BO57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BP57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BQ57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BR57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BS57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BT57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BU57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BV57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BW57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BZ57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CA57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CB57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CC57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CD57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CE57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CF57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CG57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CH57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CI57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CJ57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CK57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CL57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CM57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CN57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CO57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CP57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CQ57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CR57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CS57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CT57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CU57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CV57" t="s">
+        <v>301</v>
+      </c>
+      <c r="FG57" t="s">
+        <v>301</v>
+      </c>
+      <c r="FH57" t="s">
+        <v>301</v>
+      </c>
+      <c r="FR57" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AB32" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="FG58" t="s">
+        <v>326</v>
+      </c>
+      <c r="FH58" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="GH59" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="GJ60" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AH32" t="s">
-        <v>264</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>265</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>245</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>268</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>269</v>
-      </c>
-      <c r="AM32" t="s">
+      <c r="E61" t="s">
+        <v>302</v>
+      </c>
+      <c r="F61" t="s">
+        <v>302</v>
+      </c>
+      <c r="G61" t="s">
+        <v>302</v>
+      </c>
+      <c r="H61" t="s">
+        <v>302</v>
+      </c>
+      <c r="I61" t="s">
+        <v>302</v>
+      </c>
+      <c r="J61" t="s">
+        <v>302</v>
+      </c>
+      <c r="K61" t="s">
+        <v>302</v>
+      </c>
+      <c r="L61" t="s">
+        <v>302</v>
+      </c>
+      <c r="M61" t="s">
+        <v>302</v>
+      </c>
+      <c r="N61" t="s">
+        <v>302</v>
+      </c>
+      <c r="O61" t="s">
+        <v>302</v>
+      </c>
+      <c r="P61" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>302</v>
+      </c>
+      <c r="R61" t="s">
+        <v>302</v>
+      </c>
+      <c r="S61" t="s">
+        <v>302</v>
+      </c>
+      <c r="T61" t="s">
+        <v>302</v>
+      </c>
+      <c r="U61" t="s">
+        <v>302</v>
+      </c>
+      <c r="V61" t="s">
+        <v>302</v>
+      </c>
+      <c r="W61" t="s">
+        <v>302</v>
+      </c>
+      <c r="X61" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AW61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BA61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BB61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BC61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BE61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BF61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BG61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BI61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BJ61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BK61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BL61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BM61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BN61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BO61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BP61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BQ61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BR61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BT61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BU61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BV61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BW61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BX61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BY61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BZ61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CA61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CB61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CC61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CD61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CE61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CG61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CH61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CI61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CJ61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CK61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CL61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CM61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CN61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CO61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CP61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CQ61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CR61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CS61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CT61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CU61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CV61" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E62" t="s">
+        <v>303</v>
+      </c>
+      <c r="F62" t="s">
+        <v>309</v>
+      </c>
+      <c r="G62" t="s">
+        <v>309</v>
+      </c>
+      <c r="H62" t="s">
+        <v>303</v>
+      </c>
+      <c r="I62" t="s">
+        <v>303</v>
+      </c>
+      <c r="J62" t="s">
+        <v>309</v>
+      </c>
+      <c r="K62" t="s">
+        <v>309</v>
+      </c>
+      <c r="L62" t="s">
+        <v>303</v>
+      </c>
+      <c r="M62" t="s">
+        <v>309</v>
+      </c>
+      <c r="N62" t="s">
+        <v>303</v>
+      </c>
+      <c r="O62" t="s">
+        <v>309</v>
+      </c>
+      <c r="P62" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>303</v>
+      </c>
+      <c r="R62" t="s">
+        <v>309</v>
+      </c>
+      <c r="S62" t="s">
+        <v>309</v>
+      </c>
+      <c r="T62" t="s">
+        <v>303</v>
+      </c>
+      <c r="U62" t="s">
+        <v>303</v>
+      </c>
+      <c r="V62" t="s">
+        <v>303</v>
+      </c>
+      <c r="W62" t="s">
+        <v>309</v>
+      </c>
+      <c r="X62" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AT62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AZ62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BC62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BD62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BE62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BF62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BG62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BH62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BI62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BJ62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BK62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BL62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BM62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BN62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BO62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BP62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BQ62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BR62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BS62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BT62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BU62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BW62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BX62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BY62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BZ62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CA62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CB62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CC62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CD62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CE62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CF62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CG62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CH62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CI62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CJ62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CK62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CL62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CM62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CN62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CO62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CP62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CQ62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CR62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CS62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CT62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CU62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CV62" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AN32" t="s">
+      <c r="E63" t="s">
+        <v>304</v>
+      </c>
+      <c r="F63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G63" t="s">
+        <v>304</v>
+      </c>
+      <c r="H63" t="s">
+        <v>304</v>
+      </c>
+      <c r="I63" t="s">
+        <v>304</v>
+      </c>
+      <c r="J63" t="s">
+        <v>304</v>
+      </c>
+      <c r="K63" t="s">
+        <v>304</v>
+      </c>
+      <c r="L63" t="s">
+        <v>304</v>
+      </c>
+      <c r="M63" t="s">
+        <v>304</v>
+      </c>
+      <c r="N63" t="s">
+        <v>304</v>
+      </c>
+      <c r="O63" t="s">
+        <v>304</v>
+      </c>
+      <c r="P63" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>304</v>
+      </c>
+      <c r="R63" t="s">
+        <v>304</v>
+      </c>
+      <c r="S63" t="s">
+        <v>304</v>
+      </c>
+      <c r="T63" t="s">
+        <v>304</v>
+      </c>
+      <c r="U63" t="s">
+        <v>304</v>
+      </c>
+      <c r="V63" t="s">
+        <v>304</v>
+      </c>
+      <c r="W63" t="s">
+        <v>304</v>
+      </c>
+      <c r="X63" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AT63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AW63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BA63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BD63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BE63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BG63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BJ63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BK63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BL63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BM63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BN63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BO63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BP63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BQ63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BS63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BT63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BV63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BW63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BX63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BY63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BZ63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CA63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CB63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CC63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CD63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CE63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CF63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CG63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CH63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CI63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CJ63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CK63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CL63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CM63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CN63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CO63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CP63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CQ63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CR63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CS63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CT63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CU63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CV63" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AO32" t="s">
-        <v>258</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ32" t="s">
+      <c r="DH64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DI64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DJ64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DK64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DL64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DM64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DN64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DO64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DP64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DQ64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DR64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DS64" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AR32" t="s">
+      <c r="B65" t="s">
+        <v>287</v>
+      </c>
+      <c r="E65" t="s">
+        <v>305</v>
+      </c>
+      <c r="F65" t="s">
+        <v>305</v>
+      </c>
+      <c r="G65" t="s">
+        <v>305</v>
+      </c>
+      <c r="H65" t="s">
+        <v>305</v>
+      </c>
+      <c r="I65" t="s">
+        <v>305</v>
+      </c>
+      <c r="J65" t="s">
+        <v>305</v>
+      </c>
+      <c r="K65" t="s">
+        <v>305</v>
+      </c>
+      <c r="L65" t="s">
+        <v>305</v>
+      </c>
+      <c r="M65" t="s">
+        <v>305</v>
+      </c>
+      <c r="N65" t="s">
+        <v>305</v>
+      </c>
+      <c r="O65" t="s">
+        <v>305</v>
+      </c>
+      <c r="P65" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>305</v>
+      </c>
+      <c r="R65" t="s">
+        <v>305</v>
+      </c>
+      <c r="S65" t="s">
+        <v>305</v>
+      </c>
+      <c r="T65" t="s">
+        <v>305</v>
+      </c>
+      <c r="U65" t="s">
+        <v>305</v>
+      </c>
+      <c r="V65" t="s">
+        <v>305</v>
+      </c>
+      <c r="W65" t="s">
+        <v>305</v>
+      </c>
+      <c r="X65" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AW65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AX65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AZ65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BA65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BB65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BC65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BD65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BE65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BF65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BG65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BH65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BI65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BJ65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BK65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BM65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BN65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BO65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BP65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BQ65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BR65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BS65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BT65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BU65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BV65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BW65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BX65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BY65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BZ65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CA65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CB65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CC65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CD65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CE65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CF65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CG65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CH65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CI65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CJ65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CK65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CL65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CM65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CN65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CO65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CP65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CQ65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CR65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CS65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CT65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CU65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CV65" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AS32" t="s">
-        <v>263</v>
-      </c>
-      <c r="AT32" t="s">
+      <c r="B66" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AU32" t="s">
+      <c r="B67" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AV32" t="s">
-        <v>245</v>
-      </c>
-      <c r="AW32" t="s">
+      <c r="B68" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AX32" t="s">
+      <c r="B69" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AY32" t="s">
+      <c r="E70" t="s">
+        <v>306</v>
+      </c>
+      <c r="F70" t="s">
+        <v>306</v>
+      </c>
+      <c r="G70" t="s">
+        <v>306</v>
+      </c>
+      <c r="H70" t="s">
+        <v>306</v>
+      </c>
+      <c r="I70" t="s">
+        <v>306</v>
+      </c>
+      <c r="J70" t="s">
+        <v>306</v>
+      </c>
+      <c r="K70" t="s">
+        <v>306</v>
+      </c>
+      <c r="L70" t="s">
+        <v>306</v>
+      </c>
+      <c r="M70" t="s">
+        <v>306</v>
+      </c>
+      <c r="N70" t="s">
+        <v>306</v>
+      </c>
+      <c r="O70" t="s">
+        <v>306</v>
+      </c>
+      <c r="P70" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>306</v>
+      </c>
+      <c r="R70" t="s">
+        <v>306</v>
+      </c>
+      <c r="S70" t="s">
+        <v>306</v>
+      </c>
+      <c r="T70" t="s">
+        <v>306</v>
+      </c>
+      <c r="U70" t="s">
+        <v>306</v>
+      </c>
+      <c r="V70" t="s">
+        <v>306</v>
+      </c>
+      <c r="W70" t="s">
+        <v>306</v>
+      </c>
+      <c r="X70" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AT70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AU70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AV70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AX70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AY70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AZ70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BA70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BB70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BC70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BD70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BE70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BF70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BG70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BH70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BI70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BJ70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BK70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BL70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BM70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BN70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BO70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BP70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BQ70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BR70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BS70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BT70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BU70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BV70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BW70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BX70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BY70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BZ70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CA70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CB70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CC70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CD70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CE70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CF70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CG70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CH70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CI70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CJ70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CK70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CL70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CM70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CN70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CO70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CP70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CQ70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CR70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CS70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CT70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CU70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CV70" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AZ32" t="s">
+      <c r="E71" t="s">
+        <v>307</v>
+      </c>
+      <c r="F71" t="s">
+        <v>307</v>
+      </c>
+      <c r="G71" t="s">
+        <v>307</v>
+      </c>
+      <c r="H71" t="s">
+        <v>307</v>
+      </c>
+      <c r="I71" t="s">
+        <v>307</v>
+      </c>
+      <c r="J71" t="s">
+        <v>307</v>
+      </c>
+      <c r="K71" t="s">
+        <v>307</v>
+      </c>
+      <c r="L71" t="s">
+        <v>307</v>
+      </c>
+      <c r="M71" t="s">
+        <v>307</v>
+      </c>
+      <c r="N71" t="s">
+        <v>307</v>
+      </c>
+      <c r="O71" t="s">
+        <v>307</v>
+      </c>
+      <c r="P71" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>307</v>
+      </c>
+      <c r="R71" t="s">
+        <v>307</v>
+      </c>
+      <c r="S71" t="s">
+        <v>307</v>
+      </c>
+      <c r="T71" t="s">
+        <v>307</v>
+      </c>
+      <c r="U71" t="s">
+        <v>307</v>
+      </c>
+      <c r="V71" t="s">
+        <v>307</v>
+      </c>
+      <c r="W71" t="s">
+        <v>307</v>
+      </c>
+      <c r="X71" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AZ71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BA71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BB71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BC71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BD71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BF71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BG71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BH71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BI71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BJ71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BK71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BL71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BN71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BO71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BP71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BR71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BS71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BT71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BU71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BV71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BW71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BX71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BY71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BZ71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CA71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CB71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CC71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CD71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CE71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CF71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CG71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CH71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CI71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CJ71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CK71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CL71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CM71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CN71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CO71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CP71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CQ71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CR71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CS71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CT71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CU71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CV71" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="72" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="BA32" t="s">
-        <v>257</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>285</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>286</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>264</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>245</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>269</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>257</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>262</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>264</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>245</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>245</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>269</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>257</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>258</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>259</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>290</v>
-      </c>
-      <c r="BQ32" t="s">
-        <v>291</v>
-      </c>
-      <c r="BR32" t="s">
-        <v>292</v>
-      </c>
-      <c r="BS32" t="s">
-        <v>293</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>279</v>
-      </c>
-      <c r="BU32" t="s">
-        <v>294</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>295</v>
-      </c>
-      <c r="BW32" t="s">
-        <v>296</v>
-      </c>
-      <c r="BX32" t="s">
-        <v>297</v>
-      </c>
-      <c r="BY32" t="s">
-        <v>298</v>
-      </c>
-      <c r="BZ32" t="s">
-        <v>299</v>
-      </c>
-      <c r="CA32" t="s">
-        <v>259</v>
-      </c>
-      <c r="CB32" t="s">
-        <v>300</v>
-      </c>
-      <c r="CC32" t="s">
-        <v>301</v>
-      </c>
-      <c r="CD32" t="s">
-        <v>302</v>
-      </c>
-      <c r="CE32" t="s">
-        <v>303</v>
-      </c>
-      <c r="CF32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CG32" t="s">
-        <v>304</v>
-      </c>
-      <c r="CH32" t="s">
-        <v>305</v>
-      </c>
-      <c r="CI32" t="s">
-        <v>264</v>
-      </c>
-      <c r="CJ32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CK32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CL32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CM32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CN32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CO32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CP32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CQ32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CR32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CS32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C33" t="s">
-        <v>248</v>
-      </c>
-      <c r="D33" t="s">
-        <v>248</v>
-      </c>
-      <c r="H33" t="s">
-        <v>248</v>
-      </c>
-      <c r="I33" t="s">
-        <v>248</v>
-      </c>
-      <c r="J33" t="s">
-        <v>248</v>
-      </c>
-      <c r="K33" t="s">
-        <v>248</v>
-      </c>
-      <c r="L33" t="s">
-        <v>248</v>
-      </c>
-      <c r="M33" t="s">
-        <v>260</v>
-      </c>
-      <c r="N33" t="s">
-        <v>260</v>
-      </c>
-      <c r="O33" t="s">
-        <v>260</v>
-      </c>
-      <c r="P33" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>260</v>
-      </c>
-      <c r="R33" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BO33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BP33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BQ33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BR33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BS33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BT33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BU33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BV33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BW33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BX33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BY33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BZ33" t="s">
-        <v>260</v>
-      </c>
-      <c r="CA33" t="s">
-        <v>260</v>
-      </c>
-      <c r="CB33" t="s">
-        <v>260</v>
-      </c>
-      <c r="CC33" t="s">
-        <v>284</v>
-      </c>
-      <c r="CD33" t="s">
-        <v>284</v>
-      </c>
-      <c r="CE33" t="s">
-        <v>284</v>
-      </c>
-      <c r="CG33" t="s">
-        <v>284</v>
-      </c>
-      <c r="CH33" t="s">
-        <v>284</v>
-      </c>
-      <c r="CI33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C34" t="s">
-        <v>249</v>
-      </c>
-      <c r="D34" t="s">
-        <v>251</v>
-      </c>
-      <c r="H34" t="s">
-        <v>251</v>
-      </c>
-      <c r="I34" t="s">
-        <v>251</v>
-      </c>
-      <c r="J34" t="s">
-        <v>251</v>
-      </c>
-      <c r="K34" t="s">
-        <v>251</v>
-      </c>
-      <c r="L34" t="s">
-        <v>251</v>
-      </c>
-      <c r="M34" t="s">
-        <v>249</v>
-      </c>
-      <c r="N34" t="s">
-        <v>249</v>
-      </c>
-      <c r="O34" t="s">
-        <v>249</v>
-      </c>
-      <c r="P34" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>249</v>
-      </c>
-      <c r="R34" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>287</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BS34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BT34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BW34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BX34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BY34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BZ34" t="s">
-        <v>249</v>
-      </c>
-      <c r="CA34" t="s">
-        <v>249</v>
-      </c>
-      <c r="CB34" t="s">
-        <v>249</v>
-      </c>
-      <c r="CC34" t="s">
-        <v>249</v>
-      </c>
-      <c r="CD34" t="s">
-        <v>249</v>
-      </c>
-      <c r="CE34" t="s">
-        <v>249</v>
-      </c>
-      <c r="CG34" t="s">
-        <v>249</v>
-      </c>
-      <c r="CH34" t="s">
-        <v>249</v>
-      </c>
-      <c r="CI34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:97" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:97" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B36" t="s">
-        <v>246</v>
-      </c>
-      <c r="E36" t="s">
-        <v>252</v>
-      </c>
-      <c r="F36" t="s">
-        <v>253</v>
-      </c>
-      <c r="G36" t="s">
-        <v>252</v>
-      </c>
-      <c r="S36" t="s">
-        <v>253</v>
-      </c>
-      <c r="T36" t="s">
-        <v>246</v>
-      </c>
-      <c r="U36" t="s">
-        <v>246</v>
-      </c>
-      <c r="V36" t="s">
-        <v>246</v>
-      </c>
-      <c r="W36" t="s">
-        <v>266</v>
-      </c>
-      <c r="X36" t="s">
-        <v>252</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>253</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>253</v>
-      </c>
-      <c r="BJ36" t="s">
-        <v>246</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>266</v>
-      </c>
-      <c r="CK36" t="s">
-        <v>246</v>
-      </c>
-      <c r="CL36" t="s">
-        <v>266</v>
-      </c>
-      <c r="CP36" t="s">
-        <v>253</v>
-      </c>
-      <c r="CQ36" t="s">
+      <c r="E72" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="37" spans="1:97" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>273</v>
-      </c>
-      <c r="CF37" t="s">
-        <v>273</v>
-      </c>
-      <c r="CJ37" t="s">
-        <v>306</v>
-      </c>
-      <c r="CR37" t="s">
-        <v>273</v>
-      </c>
-      <c r="CS37" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="38" spans="1:97" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BE38" t="s">
-        <v>288</v>
-      </c>
-      <c r="BJ38" t="s">
-        <v>289</v>
-      </c>
-      <c r="BK38" t="s">
-        <v>289</v>
-      </c>
-      <c r="CM38" t="s">
-        <v>288</v>
-      </c>
-      <c r="CN38" t="s">
-        <v>288</v>
-      </c>
-      <c r="CO38" t="s">
-        <v>307</v>
+      <c r="F72" t="s">
+        <v>308</v>
+      </c>
+      <c r="G72" t="s">
+        <v>308</v>
+      </c>
+      <c r="H72" t="s">
+        <v>308</v>
+      </c>
+      <c r="I72" t="s">
+        <v>308</v>
+      </c>
+      <c r="J72" t="s">
+        <v>308</v>
+      </c>
+      <c r="K72" t="s">
+        <v>308</v>
+      </c>
+      <c r="L72" t="s">
+        <v>308</v>
+      </c>
+      <c r="M72" t="s">
+        <v>308</v>
+      </c>
+      <c r="N72" t="s">
+        <v>308</v>
+      </c>
+      <c r="O72" t="s">
+        <v>308</v>
+      </c>
+      <c r="P72" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>308</v>
+      </c>
+      <c r="R72" t="s">
+        <v>308</v>
+      </c>
+      <c r="S72" t="s">
+        <v>308</v>
+      </c>
+      <c r="T72" t="s">
+        <v>308</v>
+      </c>
+      <c r="U72" t="s">
+        <v>308</v>
+      </c>
+      <c r="V72" t="s">
+        <v>308</v>
+      </c>
+      <c r="W72" t="s">
+        <v>308</v>
+      </c>
+      <c r="X72" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AZ72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BA72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BB72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BC72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BD72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BE72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BF72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BG72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BH72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BI72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BJ72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BK72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BN72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BO72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BP72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BQ72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BR72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BS72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BT72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BU72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BV72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BW72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BX72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BY72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BZ72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CA72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CB72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CC72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CD72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CE72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CF72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CG72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CH72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CI72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CJ72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CK72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CL72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CM72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CN72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CO72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CP72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CQ72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CR72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CS72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CT72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CU72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CV72" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/58668.xlsx
+++ b/icd_files/58668.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDCBB53-8C0B-45F8-A4FA-F2642F282921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3423E5AD-4DC1-4EA8-AD53-B0B6B020D977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="479">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -717,6 +717,12 @@
     <t>01-09</t>
   </si>
   <si>
+    <t>01-10</t>
+  </si>
+  <si>
+    <t>01-11</t>
+  </si>
+  <si>
     <t>01-12</t>
   </si>
   <si>
@@ -738,6 +744,15 @@
     <t>01-19</t>
   </si>
   <si>
+    <t>01-20</t>
+  </si>
+  <si>
+    <t>01-24</t>
+  </si>
+  <si>
+    <t>01-27</t>
+  </si>
+  <si>
     <t>01-28</t>
   </si>
   <si>
@@ -750,21 +765,141 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Ipratropium Bromide Neb</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin HCl</t>
+  </si>
+  <si>
+    <t>Potassium Chl 20 mEq / 1000 mL D5 1/2 NS</t>
+  </si>
+  <si>
+    <t>DiphenhydrAMINE</t>
+  </si>
+  <si>
+    <t>Metoprolol Tartrate</t>
+  </si>
+  <si>
     <t>0.9% Sodium Chloride</t>
   </si>
   <si>
-    <t>Metoprolol Tartrate</t>
+    <t>LeVETiracetam</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Oxcarbazepine</t>
   </si>
   <si>
     <t>Lorazepam</t>
   </si>
   <si>
+    <t>Neutra-Phos</t>
+  </si>
+  <si>
+    <t>Calcium Carbonate Suspension</t>
+  </si>
+  <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>NS (Mini Bag Plus)</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Lansoprazole Oral Disintegrating Tab</t>
+  </si>
+  <si>
+    <t>Diltiazem</t>
+  </si>
+  <si>
+    <t>Albumin 5% (25g / 500mL)</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Triamcinolone Acetonide 0.1% Cream</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>MethylPREDNISolone Sodium Succ</t>
+  </si>
+  <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>D5 1/2NS</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Sarna Lotion</t>
+  </si>
+  <si>
+    <t>Sodium Phosphate</t>
+  </si>
+  <si>
+    <t>Phenytoin Sodium</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Pantoprazole Sodium</t>
+  </si>
+  <si>
+    <t>Docusate Sodium</t>
+  </si>
+  <si>
+    <t>Influenza Virus Vaccine</t>
+  </si>
+  <si>
+    <t>CeftriaXONE</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Haloperidol</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
     <t>250 mL</t>
   </si>
   <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
+    <t>700 VIAL</t>
+  </si>
+  <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>40 VIAL</t>
+  </si>
+  <si>
+    <t>100 CAP</t>
+  </si>
+  <si>
+    <t>0.5 SYR</t>
+  </si>
+  <si>
     <t>19:15</t>
   </si>
   <si>
@@ -780,12 +915,54 @@
     <t>Localizes Pain</t>
   </si>
   <si>
+    <t>12.5 VIAL</t>
+  </si>
+  <si>
+    <t>500 mL</t>
+  </si>
+  <si>
+    <t>80 TAB</t>
+  </si>
+  <si>
+    <t>50-100 BAG</t>
+  </si>
+  <si>
+    <t>5000 mL</t>
+  </si>
+  <si>
+    <t>1000 mL</t>
+  </si>
+  <si>
+    <t>2 BAG</t>
+  </si>
+  <si>
+    <t>1 BTL</t>
+  </si>
+  <si>
+    <t>100 VIAL</t>
+  </si>
+  <si>
+    <t>1 BAG</t>
+  </si>
+  <si>
+    <t>50 mL</t>
+  </si>
+  <si>
+    <t>0.25 VIAL</t>
+  </si>
+  <si>
+    <t>4 BAG</t>
+  </si>
+  <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
+    <t>500 TAB</t>
+  </si>
+  <si>
     <t>100 mL</t>
   </si>
   <si>
-    <t>500 mL</t>
-  </si>
-  <si>
     <t>00:34</t>
   </si>
   <si>
@@ -822,9 +999,18 @@
     <t>22:00</t>
   </si>
   <si>
+    <t>40 mL</t>
+  </si>
+  <si>
+    <t>15 mL</t>
+  </si>
+  <si>
     <t>1000 BAG</t>
   </si>
   <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
     <t>00:10</t>
   </si>
   <si>
@@ -846,6 +1032,12 @@
     <t>25 TAB</t>
   </si>
   <si>
+    <t>30 TAB</t>
+  </si>
+  <si>
+    <t>5 VIAL</t>
+  </si>
+  <si>
     <t>06:00</t>
   </si>
   <si>
@@ -891,6 +1083,15 @@
     <t>1 mL</t>
   </si>
   <si>
+    <t>40 BAG</t>
+  </si>
+  <si>
+    <t>25 VIAL</t>
+  </si>
+  <si>
+    <t>1 TUBE</t>
+  </si>
+  <si>
     <t>0.25 mL</t>
   </si>
   <si>
@@ -906,6 +1107,9 @@
     <t>20:16</t>
   </si>
   <si>
+    <t>150 mL</t>
+  </si>
+  <si>
     <t>00:04</t>
   </si>
   <si>
@@ -945,10 +1149,43 @@
     <t>12.5 TAB</t>
   </si>
   <si>
+    <t>125 VIAL</t>
+  </si>
+  <si>
+    <t>20 TAB</t>
+  </si>
+  <si>
+    <t>1000 TAB</t>
+  </si>
+  <si>
+    <t>600 TAB</t>
+  </si>
+  <si>
+    <t>900 TAB</t>
+  </si>
+  <si>
+    <t>0.5 TAB</t>
+  </si>
+  <si>
+    <t>1 PKT</t>
+  </si>
+  <si>
+    <t>1250 UDCUP</t>
+  </si>
+  <si>
     <t>0.5 mL</t>
   </si>
   <si>
     <t>100 BAG</t>
+  </si>
+  <si>
+    <t>40 PKT</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>25 CAP</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -4481,7 +4718,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000000-E935-42B3-9407-62C4C4E539B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5662,7 +5899,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000001-E935-42B3-9407-62C4C4E539B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6843,7 +7080,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000002-E935-42B3-9407-62C4C4E539B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8135,7 +8372,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000003-E935-42B3-9407-62C4C4E539B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9430,7 +9667,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000004-E935-42B3-9407-62C4C4E539B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10257,7 +10494,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000005-E935-42B3-9407-62C4C4E539B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10980,7 +11217,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000006-E935-42B3-9407-62C4C4E539B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11709,7 +11946,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000007-E935-42B3-9407-62C4C4E539B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12429,7 +12666,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9B7D-4757-BE6B-AFD9A8D7072F}"/>
+              <c16:uniqueId val="{00000008-E935-42B3-9407-62C4C4E539B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12872,7 +13109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A31713-AFE5-4A73-A510-8167943B227D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881E3B31-C8C3-463C-88C5-BBD3E8134B03}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -12897,7 +13134,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>309</v>
+        <v>388</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -12910,7 +13147,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -12923,7 +13160,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -12936,7 +13173,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>312</v>
+        <v>391</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -12949,27 +13186,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>316</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -12997,7 +13234,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -13025,11 +13262,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -13052,7 +13289,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13089,7 +13326,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -13112,14 +13349,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -13142,14 +13379,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -13172,14 +13409,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -13202,14 +13439,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>325</v>
+        <v>404</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -13232,16 +13469,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>325</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>326</v>
+        <v>405</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>327</v>
+        <v>406</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -13264,14 +13501,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>327</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -13294,10 +13531,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>329</v>
+        <v>408</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -13305,7 +13542,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>330</v>
+        <v>409</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -13317,7 +13554,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -13340,7 +13577,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -13356,11 +13593,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>332</v>
+        <v>411</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>333</v>
+        <v>412</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -13383,7 +13620,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>333</v>
+        <v>412</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -13401,7 +13638,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -13424,7 +13661,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -13443,7 +13680,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>335</v>
+        <v>414</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -13466,10 +13703,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>335</v>
+        <v>414</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -13487,7 +13724,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -13510,52 +13747,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>343</v>
+        <v>422</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>351</v>
+        <v>430</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -13578,53 +13815,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>351</v>
+        <v>430</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>358</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -13647,43 +13884,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -13691,7 +13928,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -13714,43 +13951,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -13758,7 +13995,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -13781,43 +14018,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -13825,7 +14062,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -13848,43 +14085,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -13892,7 +14129,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -13915,43 +14152,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -13959,7 +14196,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>343</v>
+        <v>422</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -13982,43 +14219,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>343</v>
+        <v>422</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -14026,7 +14263,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -14049,43 +14286,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -14093,7 +14330,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -14116,43 +14353,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -14160,7 +14397,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -14183,43 +14420,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -14227,7 +14464,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -14250,43 +14487,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -14294,7 +14531,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -14317,43 +14554,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -14361,7 +14598,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -14384,7 +14621,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -14397,10 +14634,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -14408,7 +14645,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -14431,14 +14668,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>360</v>
+        <v>439</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -14453,7 +14690,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -14476,7 +14713,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -14496,7 +14733,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -14519,7 +14756,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -14539,7 +14776,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -14562,7 +14799,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -14580,11 +14817,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>364</v>
+        <v>443</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>365</v>
+        <v>444</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -14607,14 +14844,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>365</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -14637,14 +14874,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -14667,14 +14904,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -14697,14 +14934,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -14727,14 +14964,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -14757,14 +14994,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -14787,10 +15024,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>366</v>
+        <v>445</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -14807,7 +15044,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -14830,7 +15067,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -14848,7 +15085,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -14871,7 +15108,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -14889,7 +15126,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -14912,14 +15149,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -14942,14 +15179,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>367</v>
+        <v>446</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -14972,24 +15209,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>367</v>
+        <v>446</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>368</v>
+        <v>447</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>369</v>
+        <v>448</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>370</v>
+        <v>449</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -15012,7 +15249,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>370</v>
+        <v>449</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -15021,7 +15258,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -15044,14 +15281,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>372</v>
+        <v>451</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -15059,7 +15296,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>373</v>
+        <v>452</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -15082,7 +15319,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>373</v>
+        <v>452</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -15091,7 +15328,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>374</v>
+        <v>453</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -15114,14 +15351,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>374</v>
+        <v>453</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>375</v>
+        <v>454</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -15129,7 +15366,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -15152,7 +15389,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -15161,7 +15398,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>377</v>
+        <v>456</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -15184,24 +15421,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>377</v>
+        <v>456</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>378</v>
+        <v>457</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>379</v>
+        <v>458</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>380</v>
+        <v>459</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -15224,7 +15461,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>380</v>
+        <v>459</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -15233,7 +15470,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>381</v>
+        <v>460</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -15256,22 +15493,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>381</v>
+        <v>460</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>382</v>
+        <v>461</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -15279,7 +15516,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>383</v>
+        <v>462</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -15302,7 +15539,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>383</v>
+        <v>462</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -15315,7 +15552,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>384</v>
+        <v>463</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -15338,32 +15575,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>384</v>
+        <v>463</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>385</v>
+        <v>464</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>386</v>
+        <v>465</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>387</v>
+        <v>466</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -15386,7 +15623,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>387</v>
+        <v>466</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -15395,7 +15632,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>388</v>
+        <v>467</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -15418,14 +15655,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>388</v>
+        <v>467</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>389</v>
+        <v>468</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -15433,7 +15670,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>390</v>
+        <v>469</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -15456,14 +15693,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>390</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>391</v>
+        <v>470</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -15486,12 +15723,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>391</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -15519,7 +15756,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>393</v>
+        <v>472</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -15546,13 +15783,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>394</v>
+        <v>473</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>395</v>
+        <v>474</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -15580,7 +15817,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>396</v>
+        <v>475</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -15692,7 +15929,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>397</v>
+        <v>476</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -15720,7 +15957,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>398</v>
+        <v>477</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -15748,7 +15985,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>399</v>
+        <v>478</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -20531,13 +20768,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:CS38"/>
+  <dimension ref="A30:GX72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>219</v>
       </c>
@@ -20545,7 +20782,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:206" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>221</v>
       </c>
@@ -20598,1095 +20835,6023 @@
         <v>222</v>
       </c>
       <c r="S31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AV31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BD31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BF31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BG31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BI31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BO31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BP31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BR31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BS31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BT31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BU31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BY31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BZ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CB31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CC31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CD31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CE31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CF31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CG31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CI31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CJ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CK31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CL31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CM31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CN31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CO31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CP31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CQ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CR31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CS31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CT31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CU31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CV31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CW31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CX31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CY31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CZ31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DA31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DB31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DC31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DD31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DE31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DF31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DG31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DH31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="DI31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="DJ31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="DK31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="DL31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="DM31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="DN31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="DO31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="DP31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="DQ31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="DR31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="DS31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="DT31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="DU31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="DV31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="DW31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="DX31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="DY31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="DZ31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EA31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EB31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EC31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="ED31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EE31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="EF31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="EG31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="EH31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="EI31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="EJ31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="EK31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="EL31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="EM31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AS31" s="1" t="s">
+      <c r="EN31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AT31" s="1" t="s">
+      <c r="EO31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AU31" s="1" t="s">
+      <c r="EP31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AV31" s="1" t="s">
+      <c r="EQ31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="ER31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="ES31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AW31" s="1" t="s">
+      <c r="ET31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AX31" s="1" t="s">
+      <c r="EU31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AY31" s="1" t="s">
+      <c r="EV31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AZ31" s="1" t="s">
+      <c r="EW31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="EX31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BB31" s="1" t="s">
+      <c r="EY31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BC31" s="1" t="s">
+      <c r="EZ31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BD31" s="1" t="s">
+      <c r="FA31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BE31" s="1" t="s">
+      <c r="FB31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BF31" s="1" t="s">
+      <c r="FC31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BG31" s="1" t="s">
+      <c r="FD31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BH31" s="1" t="s">
+      <c r="FE31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BI31" s="1" t="s">
+      <c r="FF31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BJ31" s="1" t="s">
+      <c r="FG31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BK31" s="1" t="s">
+      <c r="FH31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BL31" s="1" t="s">
+      <c r="FI31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BM31" s="1" t="s">
+      <c r="FJ31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BN31" s="1" t="s">
+      <c r="FK31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BO31" s="1" t="s">
+      <c r="FL31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BP31" s="1" t="s">
+      <c r="FM31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BQ31" s="1" t="s">
+      <c r="FN31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BR31" s="1" t="s">
+      <c r="FO31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BS31" s="1" t="s">
+      <c r="FP31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BT31" s="1" t="s">
+      <c r="FQ31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BU31" s="1" t="s">
+      <c r="FR31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BV31" s="1" t="s">
+      <c r="FS31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BW31" s="1" t="s">
+      <c r="FT31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BX31" s="1" t="s">
+      <c r="FU31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BY31" s="1" t="s">
+      <c r="FV31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BZ31" s="1" t="s">
+      <c r="FW31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CA31" s="1" t="s">
+      <c r="FX31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CB31" s="1" t="s">
+      <c r="FY31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CC31" s="1" t="s">
+      <c r="FZ31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CD31" s="1" t="s">
+      <c r="GA31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CE31" s="1" t="s">
+      <c r="GB31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CF31" s="1" t="s">
+      <c r="GC31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="GD31" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="CG31" s="1" t="s">
+      <c r="GE31" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="CH31" s="1" t="s">
+      <c r="GF31" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="CI31" s="1" t="s">
+      <c r="GG31" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="CJ31" s="1" t="s">
+      <c r="GH31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="CK31" s="1" t="s">
+      <c r="GI31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="CL31" s="1" t="s">
+      <c r="GJ31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="CM31" s="1" t="s">
+      <c r="GK31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="CN31" s="1" t="s">
+      <c r="GL31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="CO31" s="1" t="s">
+      <c r="GM31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="GN31" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="CP31" s="1" t="s">
+      <c r="GO31" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="CQ31" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="CR31" s="1" t="s">
+      <c r="GP31" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="CS31" s="1" t="s">
+      <c r="GQ31" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="GR31" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="32" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="GS31" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="GT31" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="GU31" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="GV31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="GW31" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="GX31" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D32" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32" t="s">
+        <v>284</v>
+      </c>
+      <c r="F32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" t="s">
+        <v>284</v>
+      </c>
+      <c r="H32" t="s">
+        <v>284</v>
+      </c>
+      <c r="I32" t="s">
+        <v>284</v>
+      </c>
+      <c r="J32" t="s">
+        <v>284</v>
+      </c>
+      <c r="K32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="s">
+        <v>284</v>
+      </c>
+      <c r="N32" t="s">
+        <v>284</v>
+      </c>
+      <c r="O32" t="s">
+        <v>284</v>
+      </c>
+      <c r="P32" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>284</v>
+      </c>
+      <c r="R32" t="s">
+        <v>284</v>
+      </c>
+      <c r="S32" t="s">
+        <v>284</v>
+      </c>
+      <c r="T32" t="s">
+        <v>284</v>
+      </c>
+      <c r="U32" t="s">
+        <v>284</v>
+      </c>
+      <c r="V32" t="s">
+        <v>284</v>
+      </c>
+      <c r="W32" t="s">
+        <v>284</v>
+      </c>
+      <c r="X32" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>313</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>315</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>316</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>317</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>318</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>320</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>321</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>322</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>323</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>324</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DP32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DQ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DR32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>284</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>329</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>330</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>331</v>
+      </c>
+      <c r="DW32" t="s">
+        <v>316</v>
+      </c>
+      <c r="DX32" t="s">
+        <v>317</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>318</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>332</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>333</v>
+      </c>
+      <c r="EB32" t="s">
+        <v>334</v>
+      </c>
+      <c r="EC32" t="s">
+        <v>323</v>
+      </c>
+      <c r="ED32" t="s">
+        <v>324</v>
+      </c>
+      <c r="EE32" t="s">
+        <v>284</v>
+      </c>
+      <c r="EF32" t="s">
+        <v>284</v>
+      </c>
+      <c r="EG32" t="s">
+        <v>284</v>
+      </c>
+      <c r="EH32" t="s">
+        <v>330</v>
+      </c>
+      <c r="EI32" t="s">
+        <v>331</v>
+      </c>
+      <c r="EJ32" t="s">
+        <v>338</v>
+      </c>
+      <c r="EK32" t="s">
+        <v>339</v>
+      </c>
+      <c r="EL32" t="s">
+        <v>317</v>
+      </c>
+      <c r="EM32" t="s">
+        <v>318</v>
+      </c>
+      <c r="EN32" t="s">
+        <v>340</v>
+      </c>
+      <c r="EO32" t="s">
+        <v>341</v>
+      </c>
+      <c r="EP32" t="s">
+        <v>322</v>
+      </c>
+      <c r="EQ32" t="s">
+        <v>342</v>
+      </c>
+      <c r="ER32" t="s">
+        <v>343</v>
+      </c>
+      <c r="ES32" t="s">
+        <v>284</v>
+      </c>
+      <c r="ET32" t="s">
+        <v>344</v>
+      </c>
+      <c r="EU32" t="s">
+        <v>345</v>
+      </c>
+      <c r="EV32" t="s">
+        <v>346</v>
+      </c>
+      <c r="EW32" t="s">
+        <v>347</v>
+      </c>
+      <c r="EX32" t="s">
+        <v>316</v>
+      </c>
+      <c r="EY32" t="s">
+        <v>349</v>
+      </c>
+      <c r="EZ32" t="s">
+        <v>350</v>
+      </c>
+      <c r="FA32" t="s">
+        <v>323</v>
+      </c>
+      <c r="FB32" t="s">
+        <v>284</v>
+      </c>
+      <c r="FC32" t="s">
+        <v>331</v>
+      </c>
+      <c r="FD32" t="s">
+        <v>316</v>
+      </c>
+      <c r="FE32" t="s">
+        <v>321</v>
+      </c>
+      <c r="FF32" t="s">
+        <v>323</v>
+      </c>
+      <c r="FG32" t="s">
+        <v>284</v>
+      </c>
+      <c r="FH32" t="s">
+        <v>284</v>
+      </c>
+      <c r="FI32" t="s">
+        <v>331</v>
+      </c>
+      <c r="FJ32" t="s">
+        <v>316</v>
+      </c>
+      <c r="FK32" t="s">
+        <v>317</v>
+      </c>
+      <c r="FL32" t="s">
+        <v>318</v>
+      </c>
+      <c r="FM32" t="s">
+        <v>357</v>
+      </c>
+      <c r="FN32" t="s">
+        <v>358</v>
+      </c>
+      <c r="FO32" t="s">
+        <v>359</v>
+      </c>
+      <c r="FP32" t="s">
+        <v>360</v>
+      </c>
+      <c r="FQ32" t="s">
+        <v>343</v>
+      </c>
+      <c r="FR32" t="s">
+        <v>284</v>
+      </c>
+      <c r="FS32" t="s">
+        <v>362</v>
+      </c>
+      <c r="FT32" t="s">
+        <v>363</v>
+      </c>
+      <c r="FU32" t="s">
+        <v>364</v>
+      </c>
+      <c r="FV32" t="s">
+        <v>365</v>
+      </c>
+      <c r="FW32" t="s">
+        <v>366</v>
+      </c>
+      <c r="FX32" t="s">
+        <v>367</v>
+      </c>
+      <c r="FY32" t="s">
+        <v>318</v>
+      </c>
+      <c r="FZ32" t="s">
+        <v>368</v>
+      </c>
+      <c r="GA32" t="s">
+        <v>369</v>
+      </c>
+      <c r="GB32" t="s">
+        <v>370</v>
+      </c>
+      <c r="GC32" t="s">
+        <v>371</v>
+      </c>
+      <c r="GD32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GE32" t="s">
+        <v>372</v>
+      </c>
+      <c r="GF32" t="s">
+        <v>373</v>
+      </c>
+      <c r="GG32" t="s">
+        <v>323</v>
+      </c>
+      <c r="GH32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GI32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GJ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GK32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GL32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GM32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GN32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GO32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GP32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GQ32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GR32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GS32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GT32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GU32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GV32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GW32" t="s">
+        <v>284</v>
+      </c>
+      <c r="GX32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33" t="s">
+        <v>293</v>
+      </c>
+      <c r="CW33" t="s">
+        <v>293</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>293</v>
+      </c>
+      <c r="CY33" t="s">
+        <v>293</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>293</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>293</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DD33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DF33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DG33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DT33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DU33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DV33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DW33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DX33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DY33" t="s">
+        <v>319</v>
+      </c>
+      <c r="DZ33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EA33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EB33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EC33" t="s">
+        <v>319</v>
+      </c>
+      <c r="ED33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EE33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EF33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EG33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EH33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EI33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EJ33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EK33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EL33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EM33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EN33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EO33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EP33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EQ33" t="s">
+        <v>319</v>
+      </c>
+      <c r="ER33" t="s">
+        <v>319</v>
+      </c>
+      <c r="ET33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EU33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EV33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EW33" t="s">
+        <v>319</v>
+      </c>
+      <c r="EX33" t="s">
+        <v>348</v>
+      </c>
+      <c r="EY33" t="s">
+        <v>348</v>
+      </c>
+      <c r="EZ33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FA33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FB33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FC33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FD33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FE33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FF33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FG33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FH33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FI33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FJ33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FK33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FL33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FM33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FN33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FO33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FP33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FQ33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FS33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FT33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FU33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FV33" t="s">
+        <v>348</v>
+      </c>
+      <c r="FW33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FX33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FY33" t="s">
+        <v>319</v>
+      </c>
+      <c r="FZ33" t="s">
+        <v>319</v>
+      </c>
+      <c r="GA33" t="s">
+        <v>348</v>
+      </c>
+      <c r="GB33" t="s">
+        <v>348</v>
+      </c>
+      <c r="GC33" t="s">
+        <v>348</v>
+      </c>
+      <c r="GE33" t="s">
+        <v>348</v>
+      </c>
+      <c r="GF33" t="s">
+        <v>348</v>
+      </c>
+      <c r="GG33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
+        <v>294</v>
+      </c>
+      <c r="D34" t="s">
+        <v>296</v>
+      </c>
+      <c r="CW34" t="s">
+        <v>296</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>296</v>
+      </c>
+      <c r="CY34" t="s">
+        <v>296</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>296</v>
+      </c>
+      <c r="DA34" t="s">
+        <v>296</v>
+      </c>
+      <c r="DB34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DC34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DD34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DE34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DF34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DG34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DT34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DU34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DV34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DW34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DX34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DY34" t="s">
+        <v>294</v>
+      </c>
+      <c r="DZ34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EA34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EB34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EC34" t="s">
+        <v>294</v>
+      </c>
+      <c r="ED34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EE34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EF34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EG34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EH34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EI34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EJ34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EK34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EL34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EM34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EN34" t="s">
+        <v>296</v>
+      </c>
+      <c r="EO34" t="s">
+        <v>296</v>
+      </c>
+      <c r="EP34" t="s">
+        <v>296</v>
+      </c>
+      <c r="EQ34" t="s">
+        <v>294</v>
+      </c>
+      <c r="ER34" t="s">
+        <v>294</v>
+      </c>
+      <c r="ET34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EU34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EV34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EW34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EX34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EY34" t="s">
+        <v>294</v>
+      </c>
+      <c r="EZ34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FA34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FB34" t="s">
+        <v>351</v>
+      </c>
+      <c r="FC34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FD34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FE34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FF34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FG34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FH34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FI34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FJ34" t="s">
+        <v>296</v>
+      </c>
+      <c r="FK34" t="s">
+        <v>296</v>
+      </c>
+      <c r="FL34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FM34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FN34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FO34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FP34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FQ34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FS34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FT34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FU34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FV34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FW34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FX34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FY34" t="s">
+        <v>294</v>
+      </c>
+      <c r="FZ34" t="s">
+        <v>294</v>
+      </c>
+      <c r="GA34" t="s">
+        <v>294</v>
+      </c>
+      <c r="GB34" t="s">
+        <v>294</v>
+      </c>
+      <c r="GC34" t="s">
+        <v>294</v>
+      </c>
+      <c r="GE34" t="s">
+        <v>294</v>
+      </c>
+      <c r="GF34" t="s">
+        <v>294</v>
+      </c>
+      <c r="GG34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D32" t="s">
+      <c r="GV36" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="GW37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="GX38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E32" t="s">
-        <v>245</v>
-      </c>
-      <c r="F32" t="s">
-        <v>245</v>
-      </c>
-      <c r="G32" t="s">
-        <v>245</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="E39" t="s">
+        <v>297</v>
+      </c>
+      <c r="F39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I39" t="s">
+        <v>297</v>
+      </c>
+      <c r="J39" t="s">
+        <v>297</v>
+      </c>
+      <c r="K39" t="s">
+        <v>297</v>
+      </c>
+      <c r="L39" t="s">
+        <v>297</v>
+      </c>
+      <c r="M39" t="s">
+        <v>297</v>
+      </c>
+      <c r="N39" t="s">
+        <v>297</v>
+      </c>
+      <c r="O39" t="s">
+        <v>297</v>
+      </c>
+      <c r="P39" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>297</v>
+      </c>
+      <c r="R39" t="s">
+        <v>297</v>
+      </c>
+      <c r="S39" t="s">
+        <v>297</v>
+      </c>
+      <c r="T39" t="s">
+        <v>297</v>
+      </c>
+      <c r="U39" t="s">
+        <v>297</v>
+      </c>
+      <c r="V39" t="s">
+        <v>297</v>
+      </c>
+      <c r="W39" t="s">
+        <v>297</v>
+      </c>
+      <c r="X39" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BW39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BX39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>297</v>
+      </c>
+      <c r="BZ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CA39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CB39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CC39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CD39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CE39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CF39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CG39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CH39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CI39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CJ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CK39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CL39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CM39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CN39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CO39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CP39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CQ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CR39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CS39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CT39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CU39" t="s">
+        <v>297</v>
+      </c>
+      <c r="CV39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DH39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DI39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DJ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DK39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DL39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DM39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DN39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DO39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DP39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DQ39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DR39" t="s">
+        <v>297</v>
+      </c>
+      <c r="DS39" t="s">
+        <v>297</v>
+      </c>
+      <c r="GX39" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DH40" t="s">
+        <v>297</v>
+      </c>
+      <c r="DI40" t="s">
+        <v>297</v>
+      </c>
+      <c r="DJ40" t="s">
+        <v>297</v>
+      </c>
+      <c r="DK40" t="s">
+        <v>297</v>
+      </c>
+      <c r="DL40" t="s">
+        <v>297</v>
+      </c>
+      <c r="DM40" t="s">
+        <v>328</v>
+      </c>
+      <c r="DN40" t="s">
+        <v>328</v>
+      </c>
+      <c r="DO40" t="s">
+        <v>328</v>
+      </c>
+      <c r="DP40" t="s">
+        <v>328</v>
+      </c>
+      <c r="DQ40" t="s">
+        <v>328</v>
+      </c>
+      <c r="DR40" t="s">
+        <v>328</v>
+      </c>
+      <c r="DS40" t="s">
+        <v>297</v>
+      </c>
+      <c r="EE40" t="s">
+        <v>335</v>
+      </c>
+      <c r="EF40" t="s">
+        <v>337</v>
+      </c>
+      <c r="EG40" t="s">
+        <v>337</v>
+      </c>
+      <c r="GD40" t="s">
+        <v>335</v>
+      </c>
+      <c r="GH40" t="s">
+        <v>374</v>
+      </c>
+      <c r="GS40" t="s">
+        <v>335</v>
+      </c>
+      <c r="GX40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" t="s">
+        <v>298</v>
+      </c>
+      <c r="F41" t="s">
+        <v>298</v>
+      </c>
+      <c r="G41" t="s">
+        <v>298</v>
+      </c>
+      <c r="H41" t="s">
+        <v>298</v>
+      </c>
+      <c r="I41" t="s">
+        <v>298</v>
+      </c>
+      <c r="J41" t="s">
+        <v>298</v>
+      </c>
+      <c r="K41" t="s">
+        <v>298</v>
+      </c>
+      <c r="L41" t="s">
+        <v>298</v>
+      </c>
+      <c r="M41" t="s">
+        <v>298</v>
+      </c>
+      <c r="N41" t="s">
+        <v>298</v>
+      </c>
+      <c r="O41" t="s">
+        <v>298</v>
+      </c>
+      <c r="P41" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>298</v>
+      </c>
+      <c r="R41" t="s">
+        <v>298</v>
+      </c>
+      <c r="S41" t="s">
+        <v>298</v>
+      </c>
+      <c r="T41" t="s">
+        <v>298</v>
+      </c>
+      <c r="U41" t="s">
+        <v>298</v>
+      </c>
+      <c r="V41" t="s">
+        <v>298</v>
+      </c>
+      <c r="W41" t="s">
+        <v>298</v>
+      </c>
+      <c r="X41" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>298</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>312</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BW41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BX41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>298</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CC41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CD41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CF41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CG41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CH41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CI41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CJ41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CK41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CL41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CM41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CN41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CO41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CP41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CQ41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CR41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CS41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CT41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU41" t="s">
+        <v>312</v>
+      </c>
+      <c r="CV41" t="s">
+        <v>312</v>
+      </c>
+      <c r="DH41" t="s">
+        <v>312</v>
+      </c>
+      <c r="DI41" t="s">
+        <v>285</v>
+      </c>
+      <c r="DJ41" t="s">
+        <v>285</v>
+      </c>
+      <c r="DK41" t="s">
+        <v>327</v>
+      </c>
+      <c r="DL41" t="s">
+        <v>298</v>
+      </c>
+      <c r="DM41" t="s">
+        <v>327</v>
+      </c>
+      <c r="DN41" t="s">
+        <v>312</v>
+      </c>
+      <c r="DO41" t="s">
+        <v>298</v>
+      </c>
+      <c r="DP41" t="s">
+        <v>285</v>
+      </c>
+      <c r="DQ41" t="s">
+        <v>285</v>
+      </c>
+      <c r="DR41" t="s">
+        <v>285</v>
+      </c>
+      <c r="DS41" t="s">
+        <v>285</v>
+      </c>
+      <c r="EE41" t="s">
+        <v>298</v>
+      </c>
+      <c r="EF41" t="s">
+        <v>298</v>
+      </c>
+      <c r="EG41" t="s">
+        <v>298</v>
+      </c>
+      <c r="ES41" t="s">
+        <v>298</v>
+      </c>
+      <c r="FG41" t="s">
+        <v>327</v>
+      </c>
+      <c r="FH41" t="s">
+        <v>285</v>
+      </c>
+      <c r="GK41" t="s">
+        <v>285</v>
+      </c>
+      <c r="GL41" t="s">
+        <v>327</v>
+      </c>
+      <c r="GM41" t="s">
+        <v>327</v>
+      </c>
+      <c r="GR41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42" t="s">
+        <v>298</v>
+      </c>
+      <c r="F42" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" t="s">
+        <v>298</v>
+      </c>
+      <c r="H42" t="s">
+        <v>298</v>
+      </c>
+      <c r="I42" t="s">
+        <v>298</v>
+      </c>
+      <c r="J42" t="s">
+        <v>298</v>
+      </c>
+      <c r="K42" t="s">
+        <v>298</v>
+      </c>
+      <c r="L42" t="s">
+        <v>298</v>
+      </c>
+      <c r="M42" t="s">
+        <v>298</v>
+      </c>
+      <c r="N42" t="s">
+        <v>298</v>
+      </c>
+      <c r="O42" t="s">
+        <v>298</v>
+      </c>
+      <c r="P42" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>298</v>
+      </c>
+      <c r="R42" t="s">
+        <v>311</v>
+      </c>
+      <c r="S42" t="s">
+        <v>311</v>
+      </c>
+      <c r="T42" t="s">
+        <v>311</v>
+      </c>
+      <c r="U42" t="s">
+        <v>311</v>
+      </c>
+      <c r="V42" t="s">
+        <v>298</v>
+      </c>
+      <c r="W42" t="s">
+        <v>298</v>
+      </c>
+      <c r="X42" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>298</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BK42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BL42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BN42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BO42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>298</v>
+      </c>
+      <c r="BQ42" t="s">
+        <v>298</v>
+      </c>
+      <c r="BR42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BS42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BT42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BU42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BV42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BW42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BX42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BY42" t="s">
+        <v>311</v>
+      </c>
+      <c r="BZ42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CA42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CB42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CC42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CD42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CE42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CF42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CG42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CH42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CI42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CJ42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CK42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CL42" t="s">
+        <v>311</v>
+      </c>
+      <c r="CM42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CN42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CO42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CP42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CQ42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CR42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CS42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CT42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CU42" t="s">
+        <v>298</v>
+      </c>
+      <c r="CV42" t="s">
+        <v>298</v>
+      </c>
+      <c r="DH42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DI42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DJ42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DK42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DL42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DM42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DN42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DO42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DP42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DQ42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DR42" t="s">
+        <v>302</v>
+      </c>
+      <c r="DS42" t="s">
+        <v>302</v>
+      </c>
+      <c r="GI42" t="s">
+        <v>311</v>
+      </c>
+      <c r="GK42" t="s">
+        <v>377</v>
+      </c>
+      <c r="GL42" t="s">
+        <v>311</v>
+      </c>
+      <c r="GM42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="I32" t="s">
+      <c r="B43" t="s">
+        <v>286</v>
+      </c>
+      <c r="GK43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J32" t="s">
+      <c r="GL44" t="s">
+        <v>378</v>
+      </c>
+      <c r="GM44" t="s">
+        <v>378</v>
+      </c>
+      <c r="GN44" t="s">
+        <v>379</v>
+      </c>
+      <c r="GO44" t="s">
+        <v>379</v>
+      </c>
+      <c r="GT44" t="s">
+        <v>379</v>
+      </c>
+      <c r="GU44" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K32" t="s">
+      <c r="FB45" t="s">
+        <v>352</v>
+      </c>
+      <c r="FG45" t="s">
+        <v>356</v>
+      </c>
+      <c r="FH45" t="s">
+        <v>356</v>
+      </c>
+      <c r="GN45" t="s">
+        <v>352</v>
+      </c>
+      <c r="GO45" t="s">
+        <v>352</v>
+      </c>
+      <c r="GP45" t="s">
+        <v>380</v>
+      </c>
+      <c r="GQ45" t="s">
+        <v>383</v>
+      </c>
+      <c r="GT45" t="s">
+        <v>380</v>
+      </c>
+      <c r="GU45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="L32" t="s">
+      <c r="GP46" t="s">
+        <v>381</v>
+      </c>
+      <c r="GQ46" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M32" t="s">
+      <c r="GP47" t="s">
+        <v>382</v>
+      </c>
+      <c r="GQ47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="N32" t="s">
+      <c r="GR48" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="GR49" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="50" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="O32" t="s">
+      <c r="GR50" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="P32" t="s">
+      <c r="E51" t="s">
+        <v>299</v>
+      </c>
+      <c r="F51" t="s">
+        <v>299</v>
+      </c>
+      <c r="G51" t="s">
+        <v>299</v>
+      </c>
+      <c r="H51" t="s">
+        <v>299</v>
+      </c>
+      <c r="I51" t="s">
+        <v>299</v>
+      </c>
+      <c r="J51" t="s">
+        <v>310</v>
+      </c>
+      <c r="K51" t="s">
+        <v>310</v>
+      </c>
+      <c r="L51" t="s">
+        <v>310</v>
+      </c>
+      <c r="M51" t="s">
+        <v>310</v>
+      </c>
+      <c r="N51" t="s">
+        <v>299</v>
+      </c>
+      <c r="O51" t="s">
+        <v>310</v>
+      </c>
+      <c r="P51" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>310</v>
+      </c>
+      <c r="R51" t="s">
+        <v>299</v>
+      </c>
+      <c r="S51" t="s">
+        <v>299</v>
+      </c>
+      <c r="T51" t="s">
+        <v>299</v>
+      </c>
+      <c r="U51" t="s">
+        <v>299</v>
+      </c>
+      <c r="V51" t="s">
+        <v>310</v>
+      </c>
+      <c r="W51" t="s">
+        <v>299</v>
+      </c>
+      <c r="X51" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>310</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>299</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BG51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BH51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BI51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BJ51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BK51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BL51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BM51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BN51" t="s">
+        <v>299</v>
+      </c>
+      <c r="BO51" t="s">
+        <v>299</v>
+      </c>
+      <c r="BP51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BQ51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BR51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BS51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BT51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BU51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BV51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BW51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BX51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BZ51" t="s">
+        <v>310</v>
+      </c>
+      <c r="CA51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CB51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CD51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CE51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CF51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CG51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CH51" t="s">
+        <v>310</v>
+      </c>
+      <c r="CI51" t="s">
+        <v>310</v>
+      </c>
+      <c r="CJ51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CK51" t="s">
+        <v>310</v>
+      </c>
+      <c r="CL51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CM51" t="s">
+        <v>310</v>
+      </c>
+      <c r="CN51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CO51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CP51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CQ51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CR51" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CT51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CU51" t="s">
+        <v>299</v>
+      </c>
+      <c r="CV51" t="s">
+        <v>299</v>
+      </c>
+      <c r="DH51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DI51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DJ51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DK51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DL51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DM51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DN51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DO51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DP51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DQ51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DR51" t="s">
+        <v>325</v>
+      </c>
+      <c r="DS51" t="s">
+        <v>325</v>
+      </c>
+      <c r="FB51" t="s">
+        <v>353</v>
+      </c>
+      <c r="GT51" t="s">
+        <v>385</v>
+      </c>
+      <c r="GU51" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="EE52" t="s">
+        <v>336</v>
+      </c>
+      <c r="EF52" t="s">
+        <v>336</v>
+      </c>
+      <c r="EG52" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="R32" t="s">
+      <c r="ES53" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="S32" t="s">
-        <v>245</v>
-      </c>
-      <c r="T32" t="s">
-        <v>245</v>
-      </c>
-      <c r="U32" t="s">
-        <v>245</v>
-      </c>
-      <c r="V32" t="s">
-        <v>245</v>
-      </c>
-      <c r="W32" t="s">
-        <v>245</v>
-      </c>
-      <c r="X32" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y32" t="s">
+      <c r="FB54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E55" t="s">
+        <v>300</v>
+      </c>
+      <c r="F55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G55" t="s">
+        <v>300</v>
+      </c>
+      <c r="H55" t="s">
+        <v>300</v>
+      </c>
+      <c r="I55" t="s">
+        <v>300</v>
+      </c>
+      <c r="J55" t="s">
+        <v>300</v>
+      </c>
+      <c r="K55" t="s">
+        <v>300</v>
+      </c>
+      <c r="L55" t="s">
+        <v>300</v>
+      </c>
+      <c r="M55" t="s">
+        <v>300</v>
+      </c>
+      <c r="N55" t="s">
+        <v>300</v>
+      </c>
+      <c r="O55" t="s">
+        <v>300</v>
+      </c>
+      <c r="P55" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>300</v>
+      </c>
+      <c r="R55" t="s">
+        <v>300</v>
+      </c>
+      <c r="S55" t="s">
+        <v>300</v>
+      </c>
+      <c r="T55" t="s">
+        <v>300</v>
+      </c>
+      <c r="U55" t="s">
+        <v>300</v>
+      </c>
+      <c r="V55" t="s">
+        <v>300</v>
+      </c>
+      <c r="W55" t="s">
+        <v>300</v>
+      </c>
+      <c r="X55" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BB55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BF55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BG55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BJ55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BK55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BL55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BM55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BN55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BO55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BP55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BQ55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BR55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BS55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BT55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BU55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BV55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BW55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BX55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BY55" t="s">
+        <v>300</v>
+      </c>
+      <c r="BZ55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CA55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CB55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CC55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CD55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CE55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CF55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CG55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CH55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CI55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CJ55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CK55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CL55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CM55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CN55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CO55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CP55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CQ55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CR55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CS55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CT55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CU55" t="s">
+        <v>300</v>
+      </c>
+      <c r="CV55" t="s">
+        <v>300</v>
+      </c>
+      <c r="FB55" t="s">
+        <v>307</v>
+      </c>
+      <c r="FR55" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="56" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="FB56" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="E57" t="s">
+        <v>301</v>
+      </c>
+      <c r="F57" t="s">
+        <v>301</v>
+      </c>
+      <c r="G57" t="s">
+        <v>301</v>
+      </c>
+      <c r="H57" t="s">
+        <v>301</v>
+      </c>
+      <c r="I57" t="s">
+        <v>301</v>
+      </c>
+      <c r="J57" t="s">
+        <v>301</v>
+      </c>
+      <c r="K57" t="s">
+        <v>301</v>
+      </c>
+      <c r="L57" t="s">
+        <v>301</v>
+      </c>
+      <c r="M57" t="s">
+        <v>301</v>
+      </c>
+      <c r="N57" t="s">
+        <v>301</v>
+      </c>
+      <c r="O57" t="s">
+        <v>301</v>
+      </c>
+      <c r="P57" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>301</v>
+      </c>
+      <c r="R57" t="s">
+        <v>301</v>
+      </c>
+      <c r="S57" t="s">
+        <v>301</v>
+      </c>
+      <c r="T57" t="s">
+        <v>301</v>
+      </c>
+      <c r="U57" t="s">
+        <v>301</v>
+      </c>
+      <c r="V57" t="s">
+        <v>301</v>
+      </c>
+      <c r="W57" t="s">
+        <v>301</v>
+      </c>
+      <c r="X57" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BA57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BB57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BF57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BG57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BH57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BJ57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BM57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BN57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BO57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BP57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BQ57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BR57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BS57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BT57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BU57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BV57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BW57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY57" t="s">
+        <v>301</v>
+      </c>
+      <c r="BZ57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CA57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CB57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CC57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CD57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CE57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CF57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CG57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CH57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CI57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CJ57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CK57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CL57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CM57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CN57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CO57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CP57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CQ57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CR57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CS57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CT57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CU57" t="s">
+        <v>301</v>
+      </c>
+      <c r="CV57" t="s">
+        <v>301</v>
+      </c>
+      <c r="FG57" t="s">
+        <v>301</v>
+      </c>
+      <c r="FH57" t="s">
+        <v>301</v>
+      </c>
+      <c r="FR57" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AB32" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="FG58" t="s">
+        <v>326</v>
+      </c>
+      <c r="FH58" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="GH59" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="GJ60" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AH32" t="s">
-        <v>264</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>265</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>245</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>268</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>269</v>
-      </c>
-      <c r="AM32" t="s">
+      <c r="E61" t="s">
+        <v>302</v>
+      </c>
+      <c r="F61" t="s">
+        <v>302</v>
+      </c>
+      <c r="G61" t="s">
+        <v>302</v>
+      </c>
+      <c r="H61" t="s">
+        <v>302</v>
+      </c>
+      <c r="I61" t="s">
+        <v>302</v>
+      </c>
+      <c r="J61" t="s">
+        <v>302</v>
+      </c>
+      <c r="K61" t="s">
+        <v>302</v>
+      </c>
+      <c r="L61" t="s">
+        <v>302</v>
+      </c>
+      <c r="M61" t="s">
+        <v>302</v>
+      </c>
+      <c r="N61" t="s">
+        <v>302</v>
+      </c>
+      <c r="O61" t="s">
+        <v>302</v>
+      </c>
+      <c r="P61" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>302</v>
+      </c>
+      <c r="R61" t="s">
+        <v>302</v>
+      </c>
+      <c r="S61" t="s">
+        <v>302</v>
+      </c>
+      <c r="T61" t="s">
+        <v>302</v>
+      </c>
+      <c r="U61" t="s">
+        <v>302</v>
+      </c>
+      <c r="V61" t="s">
+        <v>302</v>
+      </c>
+      <c r="W61" t="s">
+        <v>302</v>
+      </c>
+      <c r="X61" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AW61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BA61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BB61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BC61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BE61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BF61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BG61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BI61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BJ61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BK61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BL61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BM61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BN61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BO61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BP61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BQ61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BR61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BT61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BU61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BV61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BW61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BX61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BY61" t="s">
+        <v>302</v>
+      </c>
+      <c r="BZ61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CA61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CB61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CC61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CD61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CE61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CG61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CH61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CI61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CJ61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CK61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CL61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CM61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CN61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CO61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CP61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CQ61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CR61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CS61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CT61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CU61" t="s">
+        <v>302</v>
+      </c>
+      <c r="CV61" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E62" t="s">
+        <v>303</v>
+      </c>
+      <c r="F62" t="s">
+        <v>309</v>
+      </c>
+      <c r="G62" t="s">
+        <v>309</v>
+      </c>
+      <c r="H62" t="s">
+        <v>303</v>
+      </c>
+      <c r="I62" t="s">
+        <v>303</v>
+      </c>
+      <c r="J62" t="s">
+        <v>309</v>
+      </c>
+      <c r="K62" t="s">
+        <v>309</v>
+      </c>
+      <c r="L62" t="s">
+        <v>303</v>
+      </c>
+      <c r="M62" t="s">
+        <v>309</v>
+      </c>
+      <c r="N62" t="s">
+        <v>303</v>
+      </c>
+      <c r="O62" t="s">
+        <v>309</v>
+      </c>
+      <c r="P62" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>303</v>
+      </c>
+      <c r="R62" t="s">
+        <v>309</v>
+      </c>
+      <c r="S62" t="s">
+        <v>309</v>
+      </c>
+      <c r="T62" t="s">
+        <v>303</v>
+      </c>
+      <c r="U62" t="s">
+        <v>303</v>
+      </c>
+      <c r="V62" t="s">
+        <v>303</v>
+      </c>
+      <c r="W62" t="s">
+        <v>309</v>
+      </c>
+      <c r="X62" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AT62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AZ62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BC62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BD62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BE62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BF62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BG62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BH62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BI62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BJ62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BK62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BL62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BM62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BN62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BO62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BP62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BQ62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BR62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BS62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BT62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BU62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BW62" t="s">
+        <v>309</v>
+      </c>
+      <c r="BX62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BY62" t="s">
+        <v>303</v>
+      </c>
+      <c r="BZ62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CA62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CB62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CC62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CD62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CE62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CF62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CG62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CH62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CI62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CJ62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CK62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CL62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CM62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CN62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CO62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CP62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CQ62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CR62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CS62" t="s">
+        <v>309</v>
+      </c>
+      <c r="CT62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CU62" t="s">
+        <v>303</v>
+      </c>
+      <c r="CV62" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AN32" t="s">
+      <c r="E63" t="s">
+        <v>304</v>
+      </c>
+      <c r="F63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G63" t="s">
+        <v>304</v>
+      </c>
+      <c r="H63" t="s">
+        <v>304</v>
+      </c>
+      <c r="I63" t="s">
+        <v>304</v>
+      </c>
+      <c r="J63" t="s">
+        <v>304</v>
+      </c>
+      <c r="K63" t="s">
+        <v>304</v>
+      </c>
+      <c r="L63" t="s">
+        <v>304</v>
+      </c>
+      <c r="M63" t="s">
+        <v>304</v>
+      </c>
+      <c r="N63" t="s">
+        <v>304</v>
+      </c>
+      <c r="O63" t="s">
+        <v>304</v>
+      </c>
+      <c r="P63" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>304</v>
+      </c>
+      <c r="R63" t="s">
+        <v>304</v>
+      </c>
+      <c r="S63" t="s">
+        <v>304</v>
+      </c>
+      <c r="T63" t="s">
+        <v>304</v>
+      </c>
+      <c r="U63" t="s">
+        <v>304</v>
+      </c>
+      <c r="V63" t="s">
+        <v>304</v>
+      </c>
+      <c r="W63" t="s">
+        <v>304</v>
+      </c>
+      <c r="X63" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AT63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AW63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BA63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BD63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BE63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BG63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BJ63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BK63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BL63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BM63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BN63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BO63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BP63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BQ63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BS63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BT63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BV63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BW63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BX63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BY63" t="s">
+        <v>304</v>
+      </c>
+      <c r="BZ63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CA63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CB63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CC63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CD63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CE63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CF63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CG63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CH63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CI63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CJ63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CK63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CL63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CM63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CN63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CO63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CP63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CQ63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CR63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CS63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CT63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CU63" t="s">
+        <v>304</v>
+      </c>
+      <c r="CV63" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:203" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AO32" t="s">
-        <v>258</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ32" t="s">
+      <c r="DH64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DI64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DJ64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DK64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DL64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DM64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DN64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DO64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DP64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DQ64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DR64" t="s">
+        <v>326</v>
+      </c>
+      <c r="DS64" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AR32" t="s">
+      <c r="B65" t="s">
+        <v>287</v>
+      </c>
+      <c r="E65" t="s">
+        <v>305</v>
+      </c>
+      <c r="F65" t="s">
+        <v>305</v>
+      </c>
+      <c r="G65" t="s">
+        <v>305</v>
+      </c>
+      <c r="H65" t="s">
+        <v>305</v>
+      </c>
+      <c r="I65" t="s">
+        <v>305</v>
+      </c>
+      <c r="J65" t="s">
+        <v>305</v>
+      </c>
+      <c r="K65" t="s">
+        <v>305</v>
+      </c>
+      <c r="L65" t="s">
+        <v>305</v>
+      </c>
+      <c r="M65" t="s">
+        <v>305</v>
+      </c>
+      <c r="N65" t="s">
+        <v>305</v>
+      </c>
+      <c r="O65" t="s">
+        <v>305</v>
+      </c>
+      <c r="P65" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>305</v>
+      </c>
+      <c r="R65" t="s">
+        <v>305</v>
+      </c>
+      <c r="S65" t="s">
+        <v>305</v>
+      </c>
+      <c r="T65" t="s">
+        <v>305</v>
+      </c>
+      <c r="U65" t="s">
+        <v>305</v>
+      </c>
+      <c r="V65" t="s">
+        <v>305</v>
+      </c>
+      <c r="W65" t="s">
+        <v>305</v>
+      </c>
+      <c r="X65" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AW65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AX65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY65" t="s">
+        <v>305</v>
+      </c>
+      <c r="AZ65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BA65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BB65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BC65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BD65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BE65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BF65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BG65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BH65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BI65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BJ65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BK65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BM65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BN65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BO65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BP65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BQ65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BR65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BS65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BT65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BU65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BV65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BW65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BX65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BY65" t="s">
+        <v>305</v>
+      </c>
+      <c r="BZ65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CA65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CB65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CC65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CD65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CE65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CF65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CG65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CH65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CI65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CJ65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CK65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CL65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CM65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CN65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CO65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CP65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CQ65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CR65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CS65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CT65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CU65" t="s">
+        <v>305</v>
+      </c>
+      <c r="CV65" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AS32" t="s">
-        <v>263</v>
-      </c>
-      <c r="AT32" t="s">
+      <c r="B66" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AU32" t="s">
+      <c r="B67" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AV32" t="s">
-        <v>245</v>
-      </c>
-      <c r="AW32" t="s">
+      <c r="B68" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AX32" t="s">
+      <c r="B69" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AY32" t="s">
+      <c r="E70" t="s">
+        <v>306</v>
+      </c>
+      <c r="F70" t="s">
+        <v>306</v>
+      </c>
+      <c r="G70" t="s">
+        <v>306</v>
+      </c>
+      <c r="H70" t="s">
+        <v>306</v>
+      </c>
+      <c r="I70" t="s">
+        <v>306</v>
+      </c>
+      <c r="J70" t="s">
+        <v>306</v>
+      </c>
+      <c r="K70" t="s">
+        <v>306</v>
+      </c>
+      <c r="L70" t="s">
+        <v>306</v>
+      </c>
+      <c r="M70" t="s">
+        <v>306</v>
+      </c>
+      <c r="N70" t="s">
+        <v>306</v>
+      </c>
+      <c r="O70" t="s">
+        <v>306</v>
+      </c>
+      <c r="P70" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>306</v>
+      </c>
+      <c r="R70" t="s">
+        <v>306</v>
+      </c>
+      <c r="S70" t="s">
+        <v>306</v>
+      </c>
+      <c r="T70" t="s">
+        <v>306</v>
+      </c>
+      <c r="U70" t="s">
+        <v>306</v>
+      </c>
+      <c r="V70" t="s">
+        <v>306</v>
+      </c>
+      <c r="W70" t="s">
+        <v>306</v>
+      </c>
+      <c r="X70" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AT70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AU70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AV70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AX70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AY70" t="s">
+        <v>306</v>
+      </c>
+      <c r="AZ70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BA70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BB70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BC70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BD70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BE70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BF70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BG70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BH70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BI70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BJ70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BK70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BL70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BM70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BN70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BO70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BP70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BQ70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BR70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BS70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BT70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BU70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BV70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BW70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BX70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BY70" t="s">
+        <v>306</v>
+      </c>
+      <c r="BZ70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CA70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CB70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CC70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CD70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CE70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CF70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CG70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CH70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CI70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CJ70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CK70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CL70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CM70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CN70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CO70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CP70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CQ70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CR70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CS70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CT70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CU70" t="s">
+        <v>306</v>
+      </c>
+      <c r="CV70" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AZ32" t="s">
+      <c r="E71" t="s">
+        <v>307</v>
+      </c>
+      <c r="F71" t="s">
+        <v>307</v>
+      </c>
+      <c r="G71" t="s">
+        <v>307</v>
+      </c>
+      <c r="H71" t="s">
+        <v>307</v>
+      </c>
+      <c r="I71" t="s">
+        <v>307</v>
+      </c>
+      <c r="J71" t="s">
+        <v>307</v>
+      </c>
+      <c r="K71" t="s">
+        <v>307</v>
+      </c>
+      <c r="L71" t="s">
+        <v>307</v>
+      </c>
+      <c r="M71" t="s">
+        <v>307</v>
+      </c>
+      <c r="N71" t="s">
+        <v>307</v>
+      </c>
+      <c r="O71" t="s">
+        <v>307</v>
+      </c>
+      <c r="P71" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>307</v>
+      </c>
+      <c r="R71" t="s">
+        <v>307</v>
+      </c>
+      <c r="S71" t="s">
+        <v>307</v>
+      </c>
+      <c r="T71" t="s">
+        <v>307</v>
+      </c>
+      <c r="U71" t="s">
+        <v>307</v>
+      </c>
+      <c r="V71" t="s">
+        <v>307</v>
+      </c>
+      <c r="W71" t="s">
+        <v>307</v>
+      </c>
+      <c r="X71" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AZ71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BA71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BB71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BC71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BD71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BF71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BG71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BH71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BI71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BJ71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BK71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BL71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BN71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BO71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BP71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BR71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BS71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BT71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BU71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BV71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BW71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BX71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BY71" t="s">
+        <v>307</v>
+      </c>
+      <c r="BZ71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CA71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CB71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CC71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CD71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CE71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CF71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CG71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CH71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CI71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CJ71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CK71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CL71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CM71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CN71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CO71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CP71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CQ71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CR71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CS71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CT71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CU71" t="s">
+        <v>307</v>
+      </c>
+      <c r="CV71" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="72" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="BA32" t="s">
-        <v>257</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>285</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>286</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>264</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>245</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>269</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>257</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>262</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>264</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>245</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>245</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>269</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>257</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>258</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>259</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>290</v>
-      </c>
-      <c r="BQ32" t="s">
-        <v>291</v>
-      </c>
-      <c r="BR32" t="s">
-        <v>292</v>
-      </c>
-      <c r="BS32" t="s">
-        <v>293</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>279</v>
-      </c>
-      <c r="BU32" t="s">
-        <v>294</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>295</v>
-      </c>
-      <c r="BW32" t="s">
-        <v>296</v>
-      </c>
-      <c r="BX32" t="s">
-        <v>297</v>
-      </c>
-      <c r="BY32" t="s">
-        <v>298</v>
-      </c>
-      <c r="BZ32" t="s">
-        <v>299</v>
-      </c>
-      <c r="CA32" t="s">
-        <v>259</v>
-      </c>
-      <c r="CB32" t="s">
-        <v>300</v>
-      </c>
-      <c r="CC32" t="s">
-        <v>301</v>
-      </c>
-      <c r="CD32" t="s">
-        <v>302</v>
-      </c>
-      <c r="CE32" t="s">
-        <v>303</v>
-      </c>
-      <c r="CF32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CG32" t="s">
-        <v>304</v>
-      </c>
-      <c r="CH32" t="s">
-        <v>305</v>
-      </c>
-      <c r="CI32" t="s">
-        <v>264</v>
-      </c>
-      <c r="CJ32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CK32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CL32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CM32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CN32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CO32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CP32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CQ32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CR32" t="s">
-        <v>245</v>
-      </c>
-      <c r="CS32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C33" t="s">
-        <v>248</v>
-      </c>
-      <c r="D33" t="s">
-        <v>248</v>
-      </c>
-      <c r="H33" t="s">
-        <v>248</v>
-      </c>
-      <c r="I33" t="s">
-        <v>248</v>
-      </c>
-      <c r="J33" t="s">
-        <v>248</v>
-      </c>
-      <c r="K33" t="s">
-        <v>248</v>
-      </c>
-      <c r="L33" t="s">
-        <v>248</v>
-      </c>
-      <c r="M33" t="s">
-        <v>260</v>
-      </c>
-      <c r="N33" t="s">
-        <v>260</v>
-      </c>
-      <c r="O33" t="s">
-        <v>260</v>
-      </c>
-      <c r="P33" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>260</v>
-      </c>
-      <c r="R33" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BO33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BP33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BQ33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BR33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BS33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BT33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BU33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BV33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BW33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BX33" t="s">
-        <v>284</v>
-      </c>
-      <c r="BY33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BZ33" t="s">
-        <v>260</v>
-      </c>
-      <c r="CA33" t="s">
-        <v>260</v>
-      </c>
-      <c r="CB33" t="s">
-        <v>260</v>
-      </c>
-      <c r="CC33" t="s">
-        <v>284</v>
-      </c>
-      <c r="CD33" t="s">
-        <v>284</v>
-      </c>
-      <c r="CE33" t="s">
-        <v>284</v>
-      </c>
-      <c r="CG33" t="s">
-        <v>284</v>
-      </c>
-      <c r="CH33" t="s">
-        <v>284</v>
-      </c>
-      <c r="CI33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C34" t="s">
-        <v>249</v>
-      </c>
-      <c r="D34" t="s">
-        <v>251</v>
-      </c>
-      <c r="H34" t="s">
-        <v>251</v>
-      </c>
-      <c r="I34" t="s">
-        <v>251</v>
-      </c>
-      <c r="J34" t="s">
-        <v>251</v>
-      </c>
-      <c r="K34" t="s">
-        <v>251</v>
-      </c>
-      <c r="L34" t="s">
-        <v>251</v>
-      </c>
-      <c r="M34" t="s">
-        <v>249</v>
-      </c>
-      <c r="N34" t="s">
-        <v>249</v>
-      </c>
-      <c r="O34" t="s">
-        <v>249</v>
-      </c>
-      <c r="P34" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>249</v>
-      </c>
-      <c r="R34" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>287</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BS34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BT34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BW34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BX34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BY34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BZ34" t="s">
-        <v>249</v>
-      </c>
-      <c r="CA34" t="s">
-        <v>249</v>
-      </c>
-      <c r="CB34" t="s">
-        <v>249</v>
-      </c>
-      <c r="CC34" t="s">
-        <v>249</v>
-      </c>
-      <c r="CD34" t="s">
-        <v>249</v>
-      </c>
-      <c r="CE34" t="s">
-        <v>249</v>
-      </c>
-      <c r="CG34" t="s">
-        <v>249</v>
-      </c>
-      <c r="CH34" t="s">
-        <v>249</v>
-      </c>
-      <c r="CI34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:97" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:97" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B36" t="s">
-        <v>246</v>
-      </c>
-      <c r="E36" t="s">
-        <v>252</v>
-      </c>
-      <c r="F36" t="s">
-        <v>253</v>
-      </c>
-      <c r="G36" t="s">
-        <v>252</v>
-      </c>
-      <c r="S36" t="s">
-        <v>253</v>
-      </c>
-      <c r="T36" t="s">
-        <v>246</v>
-      </c>
-      <c r="U36" t="s">
-        <v>246</v>
-      </c>
-      <c r="V36" t="s">
-        <v>246</v>
-      </c>
-      <c r="W36" t="s">
-        <v>266</v>
-      </c>
-      <c r="X36" t="s">
-        <v>252</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>253</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>253</v>
-      </c>
-      <c r="BJ36" t="s">
-        <v>246</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>266</v>
-      </c>
-      <c r="CK36" t="s">
-        <v>246</v>
-      </c>
-      <c r="CL36" t="s">
-        <v>266</v>
-      </c>
-      <c r="CP36" t="s">
-        <v>253</v>
-      </c>
-      <c r="CQ36" t="s">
+      <c r="E72" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="37" spans="1:97" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>273</v>
-      </c>
-      <c r="CF37" t="s">
-        <v>273</v>
-      </c>
-      <c r="CJ37" t="s">
-        <v>306</v>
-      </c>
-      <c r="CR37" t="s">
-        <v>273</v>
-      </c>
-      <c r="CS37" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="38" spans="1:97" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BE38" t="s">
-        <v>288</v>
-      </c>
-      <c r="BJ38" t="s">
-        <v>289</v>
-      </c>
-      <c r="BK38" t="s">
-        <v>289</v>
-      </c>
-      <c r="CM38" t="s">
-        <v>288</v>
-      </c>
-      <c r="CN38" t="s">
-        <v>288</v>
-      </c>
-      <c r="CO38" t="s">
-        <v>307</v>
+      <c r="F72" t="s">
+        <v>308</v>
+      </c>
+      <c r="G72" t="s">
+        <v>308</v>
+      </c>
+      <c r="H72" t="s">
+        <v>308</v>
+      </c>
+      <c r="I72" t="s">
+        <v>308</v>
+      </c>
+      <c r="J72" t="s">
+        <v>308</v>
+      </c>
+      <c r="K72" t="s">
+        <v>308</v>
+      </c>
+      <c r="L72" t="s">
+        <v>308</v>
+      </c>
+      <c r="M72" t="s">
+        <v>308</v>
+      </c>
+      <c r="N72" t="s">
+        <v>308</v>
+      </c>
+      <c r="O72" t="s">
+        <v>308</v>
+      </c>
+      <c r="P72" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>308</v>
+      </c>
+      <c r="R72" t="s">
+        <v>308</v>
+      </c>
+      <c r="S72" t="s">
+        <v>308</v>
+      </c>
+      <c r="T72" t="s">
+        <v>308</v>
+      </c>
+      <c r="U72" t="s">
+        <v>308</v>
+      </c>
+      <c r="V72" t="s">
+        <v>308</v>
+      </c>
+      <c r="W72" t="s">
+        <v>308</v>
+      </c>
+      <c r="X72" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AZ72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BA72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BB72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BC72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BD72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BE72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BF72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BG72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BH72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BI72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BJ72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BK72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BN72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BO72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BP72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BQ72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BR72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BS72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BT72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BU72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BV72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BW72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BX72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BY72" t="s">
+        <v>308</v>
+      </c>
+      <c r="BZ72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CA72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CB72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CC72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CD72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CE72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CF72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CG72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CH72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CI72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CJ72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CK72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CL72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CM72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CN72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CO72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CP72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CQ72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CR72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CS72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CT72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CU72" t="s">
+        <v>308</v>
+      </c>
+      <c r="CV72" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
